--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.411</v>
+        <v>-0.177</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.644</v>
+        <v>28.242</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.367</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.725</v>
+        <v>27.329</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.652</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.065</v>
+        <v>27.508</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.486544633498067</v>
+        <v>29.94914551411388</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>21.83160481130915</v>
+        <v>29.94914554890358</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.0069071967878</v>
+        <v>29.94914556120501</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.11360206735328</v>
+        <v>29.94914551835856</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.38214586179493</v>
+        <v>29.94914555664016</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.35102624354058</v>
+        <v>29.94914556853699</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9.127324198242661</v>
+        <v>29.94914552361883</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.10435806041895</v>
+        <v>29.94914556196382</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.39511100685835</v>
+        <v>29.94914557396857</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.96288422293867</v>
+        <v>29.9491455732708</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.30887386421247</v>
+        <v>29.94914558787124</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>38.30816797789604</v>
+        <v>29.94914559281246</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.59486778865533</v>
+        <v>29.9491455472759</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.82187553199077</v>
+        <v>29.94914558284582</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.86648885687894</v>
+        <v>29.94914559508239</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9.453665511059103</v>
+        <v>29.94914558545694</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.41091466035063</v>
+        <v>29.94914562681826</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.00721323279712</v>
+        <v>29.94914564015495</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.863595989046932</v>
+        <v>29.94914558834027</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23.11195694393803</v>
+        <v>29.94914563234153</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.95725483491785</v>
+        <v>29.94914564594048</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9.041856414486649</v>
+        <v>29.94914559950912</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.74488989429146</v>
+        <v>29.94914564441269</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>12.0915847310016</v>
+        <v>29.94914553326228</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.08496745490259</v>
+        <v>29.94914557005552</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>32.23254402322025</v>
+        <v>29.94914558219201</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8.723618760072</v>
+        <v>29.94914553959498</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.77871655236429</v>
+        <v>29.94914558017781</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.73394573647308</v>
+        <v>29.94914559196701</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>15.08924343977734</v>
+        <v>29.94914554598544</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>34.81504359072352</v>
+        <v>29.94914558650537</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>40.09197232835851</v>
+        <v>29.9491455983388</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.95614317446717</v>
+        <v>29.94914559776032</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42.4377711960089</v>
+        <v>29.94914561269238</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>45.47439810297363</v>
+        <v>29.94914561767827</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>19.78104958367267</v>
+        <v>29.94914556949783</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.79589975017286</v>
+        <v>29.9491456071777</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>43.81994934551552</v>
+        <v>29.9491456190289</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>15.4468728737267</v>
+        <v>29.94914561027586</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>34.13669916896119</v>
+        <v>29.9491456540035</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>39.72979387644821</v>
+        <v>29.94914566716739</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8.997653181285635</v>
+        <v>29.94914561544991</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.12689175187656</v>
+        <v>29.949145662154</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.98922883251504</v>
+        <v>29.94914567566532</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>16.67366217779477</v>
+        <v>29.94914562807301</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>40.22249663546113</v>
+        <v>29.94914567555005</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>12.76308233237986</v>
+        <v>29.94914553714942</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.80972157203278</v>
+        <v>29.94914557386748</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>32.93409391441371</v>
+        <v>29.94914558587651</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>9.735585580188516</v>
+        <v>29.94914554405667</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.83679795227794</v>
+        <v>29.94914558456176</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33.77859650250465</v>
+        <v>29.94914559626202</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>16.10357186050797</v>
+        <v>29.94914555050124</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>35.86546351169007</v>
+        <v>29.94914559092926</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>41.12200212591191</v>
+        <v>29.94914560263959</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>37.09939721412263</v>
+        <v>29.94914560204721</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>43.56131465487324</v>
+        <v>29.94914561685153</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>46.59848636801756</v>
+        <v>29.94914562182345</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>20.82706408908098</v>
+        <v>29.94914557359354</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.92527421378945</v>
+        <v>29.94914561131823</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>44.91405493662099</v>
+        <v>29.94914562299153</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>16.41366090647674</v>
+        <v>29.94914561419504</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.147479168322</v>
+        <v>29.94914565783185</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>40.72363484687993</v>
+        <v>29.94914567087142</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>10.35219311329258</v>
+        <v>29.94914561997035</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>32.52320559946661</v>
+        <v>29.94914566659189</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>38.37761992387128</v>
+        <v>29.94914568002142</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>18.05728397027101</v>
+        <v>29.94914563262805</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>41.63455530330313</v>
+        <v>29.94914568000454</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>10.62819306442424</v>
+        <v>29.94914552350162</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>25.58959305587992</v>
+        <v>29.94914555909381</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>30.77111688636982</v>
+        <v>29.94914557141871</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6.77984545504443</v>
+        <v>29.94914552959666</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>25.81980059089897</v>
+        <v>29.94914556879923</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>30.79512987845033</v>
+        <v>29.94914558083405</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>13.17745059402223</v>
+        <v>29.94914553519806</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32.90508903764489</v>
+        <v>29.94914557440879</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>38.20975405518932</v>
+        <v>29.949145586444</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>33.99329455915959</v>
+        <v>29.949145585622</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>40.51372684676095</v>
+        <v>29.94914560027684</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>43.55552966154174</v>
+        <v>29.94914560533226</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>17.8769046772639</v>
+        <v>29.94914555832213</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>34.82455999545374</v>
+        <v>29.94914559506129</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>41.8913862416237</v>
+        <v>29.94914560717766</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>13.57886908949149</v>
+        <v>29.94914559707281</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>32.25124413074203</v>
+        <v>29.94914563939021</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>37.86593705296992</v>
+        <v>29.94914565279689</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6.567422171397752</v>
+        <v>29.94914560192004</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.68301965103652</v>
+        <v>29.94914564701346</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>34.55771759483567</v>
+        <v>29.94914566082763</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.25204629528614</v>
+        <v>29.94914561353542</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>37.81502734100215</v>
+        <v>29.94914565948181</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>37.98290458747336</v>
+        <v>29.9491456577365</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>33.18536902575915</v>
+        <v>29.94914565267224</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>41.8154756752789</v>
+        <v>29.94914567081714</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>45.74029168357662</v>
+        <v>29.94914567615453</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.56388567150131</v>
+        <v>29.94914561974977</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>38.33543303326097</v>
+        <v>29.94914566396804</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>45.2709561540007</v>
+        <v>29.94914567699085</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>14.78014025700119</v>
+        <v>29.94914562339159</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>33.78161988882412</v>
+        <v>29.94914566501863</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>39.84357764088429</v>
+        <v>29.94914567826431</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>8.472281749531387</v>
+        <v>29.9491456276147</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>31.47491581901084</v>
+        <v>29.94914567197997</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.31015345248601</v>
+        <v>29.94914568544223</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>17.86852802291364</v>
+        <v>29.94914564031878</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>41.82797090350232</v>
+        <v>29.9491456855096</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>48.4529461873589</v>
+        <v>29.94914569868046</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>46.45665018779258</v>
+        <v>29.94914569323643</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>55.35154028558166</v>
+        <v>29.9491457105745</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>59.73156137564349</v>
+        <v>29.94914571514844</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>26.42191907917463</v>
+        <v>29.94914565854479</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>50.40619064166745</v>
+        <v>29.94914570227905</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>57.77210010573641</v>
+        <v>29.94914571529065</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>46.47659473841476</v>
+        <v>29.94914568868929</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>41.82006135552963</v>
+        <v>29.94914568307252</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>50.58713172978148</v>
+        <v>29.94914570144491</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>54.5570444673272</v>
+        <v>29.9491457067924</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>23.38669206575046</v>
+        <v>29.94914564772999</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>47.06471910499508</v>
+        <v>29.94914569444057</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>54.00257916678112</v>
+        <v>29.94914570705654</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>21.44946462843545</v>
+        <v>29.94914564931647</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.17826814791548</v>
+        <v>29.94914569334284</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>47.22255751491504</v>
+        <v>29.94914570633538</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>16.28156237162978</v>
+        <v>29.9491456558712</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>40.15894849225427</v>
+        <v>29.9491457029714</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>45.98704032053131</v>
+        <v>29.94914571629061</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>26.25255479883886</v>
+        <v>29.94914567002042</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>51.05875079218753</v>
+        <v>29.94914571782181</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>57.67606255494325</v>
+        <v>29.94914573072067</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>55.85417536825689</v>
+        <v>29.94914572468016</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>64.88678704728427</v>
+        <v>29.94914574223577</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>69.29912974503225</v>
+        <v>29.94914574679802</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>34.98863227186857</v>
+        <v>29.94914568767188</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>59.85798954934174</v>
+        <v>29.94914573384472</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>67.22835748383604</v>
+        <v>29.94914574636379</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>47.87243025433511</v>
+        <v>29.94914569301931</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>43.2863773311439</v>
+        <v>29.94914568726605</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>52.01644660670432</v>
+        <v>29.94914570545167</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>55.98357944281084</v>
+        <v>29.94914571077754</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.78047172771005</v>
+        <v>29.94914565182474</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>48.52028947994283</v>
+        <v>29.94914569854952</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>55.42856812123243</v>
+        <v>29.94914571097594</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>22.58649650736602</v>
+        <v>29.94914565315072</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>42.35169257437511</v>
+        <v>29.94914569712148</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>48.36955876152273</v>
+        <v>29.94914570995916</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>17.79818752591835</v>
+        <v>29.94914566031657</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>41.70443829115841</v>
+        <v>29.94914570736776</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>47.51617240519505</v>
+        <v>29.94914572057842</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>27.80229098106127</v>
+        <v>29.94914567448798</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>52.62944136103347</v>
+        <v>29.9491457222222</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>59.21898459657469</v>
+        <v>29.94914573496401</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>57.45280266496869</v>
+        <v>29.94914572879811</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>66.4491014113211</v>
+        <v>29.94914574617793</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>70.84930559672566</v>
+        <v>29.94914575071329</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>36.52303501835191</v>
+        <v>29.94914569168141</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>61.44320720437356</v>
+        <v>29.94914573790401</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>68.78094778999926</v>
+        <v>29.94914575020165</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>44.0895647711874</v>
+        <v>29.94914567287726</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>39.45041175956476</v>
+        <v>29.94914566713758</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>48.28443211482014</v>
+        <v>29.9491456852733</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>52.2635432556132</v>
+        <v>29.94914569072496</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>21.02355223081204</v>
+        <v>29.94914563302558</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>44.67907350982676</v>
+        <v>29.94914567859764</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>51.64005682280026</v>
+        <v>29.9491456914892</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>19.22986498692145</v>
+        <v>29.94914563618695</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>38.94930793258122</v>
+        <v>29.94914567888606</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>45.02560819986645</v>
+        <v>29.94914569210132</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>13.52347510136738</v>
+        <v>29.94914564245033</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>37.40338936397661</v>
+        <v>29.94914568802649</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>43.24954554203826</v>
+        <v>29.94914570161007</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.49435515578327</v>
+        <v>29.94914565562848</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>48.32387215554918</v>
+        <v>29.94914570197741</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>54.97425198891082</v>
+        <v>29.94914571510953</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>53.19156936381633</v>
+        <v>29.94914570903338</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>62.29262220022302</v>
+        <v>29.94914572637154</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>66.72193733797162</v>
+        <v>29.94914573101527</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>32.33544857557218</v>
+        <v>29.94914567303656</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>57.20017222530856</v>
+        <v>29.94914571822309</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>64.59693088492203</v>
+        <v>29.94914573099629</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3.350251097787257</v>
+        <v>29.94914548678566</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>16.98994801735289</v>
+        <v>29.94914552073139</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>21.71957714889763</v>
+        <v>29.94914553251819</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-1.286812538591413</v>
+        <v>29.94914548934363</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.11409529501263</v>
+        <v>29.94914552681395</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>20.62668431497575</v>
+        <v>29.94914553821807</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>4.179849339093678</v>
+        <v>29.94914549324066</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>22.20167039640892</v>
+        <v>29.94914553061725</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>27.06721893147868</v>
+        <v>29.94914554213149</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>22.31426086065829</v>
+        <v>29.94914554328826</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.45947981193851</v>
+        <v>29.94914555751163</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>31.23816019538913</v>
+        <v>29.94914556215496</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>6.680534567543578</v>
+        <v>29.94914551751453</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>22.19548851076568</v>
+        <v>29.94914555276493</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.54894356513697</v>
+        <v>29.94914556440995</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>5.874148099624684</v>
+        <v>29.94914555706405</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>23.15350617940242</v>
+        <v>29.94914559772969</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.46695188628954</v>
+        <v>29.94914561056419</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-2.004246450243372</v>
+        <v>29.94914555855966</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>18.48074931573999</v>
+        <v>29.94914560200577</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>23.99037541720543</v>
+        <v>29.94914561511887</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>5.138865642129705</v>
+        <v>29.94914556869997</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>26.95088367258307</v>
+        <v>29.94914561281199</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>7.596064952879313</v>
+        <v>29.94914550397021</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>21.85742933096049</v>
+        <v>29.94914553984661</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26.56123622449158</v>
+        <v>29.9491455515085</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>3.929346973548807</v>
+        <v>29.9491455085363</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>22.09469205479651</v>
+        <v>29.94914554825797</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>26.59131147749748</v>
+        <v>29.94914555957511</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>9.709543670913419</v>
+        <v>29.949145513394</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.44813405358423</v>
+        <v>29.94914555286705</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>33.30068878201872</v>
+        <v>29.94914556424676</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.81463094697773</v>
+        <v>29.94914556551355</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>35.0894114712276</v>
+        <v>29.94914558006028</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>37.90924330028869</v>
+        <v>29.94914558476919</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12.39280191421821</v>
+        <v>29.94914553754122</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.67812853426952</v>
+        <v>29.94914557485991</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>35.00483047353732</v>
+        <v>29.94914558617198</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>11.4744088599315</v>
+        <v>29.94914557966947</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.45607158480616</v>
+        <v>29.94914562262538</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>34.7731596472354</v>
+        <v>29.94914563534848</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>4.691329337897752</v>
+        <v>29.94914558342292</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26.03536569216654</v>
+        <v>29.94914562952642</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>31.56381190825818</v>
+        <v>29.94914564258801</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>12.29027147514536</v>
+        <v>29.94914559482071</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>34.91279116277305</v>
+        <v>29.94914564142386</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8.259097038953545</v>
+        <v>29.94914550794872</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>22.57377674034197</v>
+        <v>29.94914554374894</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>27.25485488668068</v>
+        <v>29.94914555529025</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>4.925191852359937</v>
+        <v>29.94914551308652</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>23.14000247816174</v>
+        <v>29.94914555273482</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>27.62243439056035</v>
+        <v>29.94914556396309</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>10.7052799356421</v>
+        <v>29.94914551799121</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.48095335936567</v>
+        <v>29.9491455573719</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>34.31315899733937</v>
+        <v>29.9491455686336</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.93391909163703</v>
+        <v>29.94914556986803</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>36.18899468748636</v>
+        <v>29.94914558428486</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>39.01149376844347</v>
+        <v>29.94914558898236</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>13.41964852616884</v>
+        <v>29.94914554170774</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.79146668563187</v>
+        <v>29.94914557906515</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>36.0832101367055</v>
+        <v>29.94914559021037</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>12.41746951918024</v>
+        <v>29.9491455836169</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>30.4420606146477</v>
+        <v>29.94914562647786</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>35.74276231609397</v>
+        <v>29.94914563908381</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>6.012520220678436</v>
+        <v>29.94914558797098</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>27.40118008221055</v>
+        <v>29.94914563399358</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>32.92106592419701</v>
+        <v>29.94914564697208</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>13.63224489100452</v>
+        <v>29.94914559938428</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>36.28286197480438</v>
+        <v>29.9491456458821</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>6.190275216843148</v>
+        <v>29.94914549559383</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>20.41933013642181</v>
+        <v>29.94914553031193</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.15452656724696</v>
+        <v>29.9491455421171</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>2.058963510272317</v>
+        <v>29.94914549992921</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>20.20515575357991</v>
+        <v>29.94914553829966</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>24.71998148848182</v>
+        <v>29.94914554982437</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>7.87414393983271</v>
+        <v>29.94914550411194</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>26.61222529514653</v>
+        <v>29.94914554232301</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>31.49088419471255</v>
+        <v>29.94914555385621</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>26.91996286950279</v>
+        <v>29.94914555491211</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>33.23436900595193</v>
+        <v>29.94914556917225</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>36.05801548792117</v>
+        <v>29.9491455739069</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>10.54903183854607</v>
+        <v>29.94914552785919</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>26.76311047700534</v>
+        <v>29.94914556424166</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>33.13076508650212</v>
+        <v>29.94914557577023</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>9.685325753302262</v>
+        <v>29.94914556788145</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>27.65081396920065</v>
+        <v>29.94914560946652</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.98964786331388</v>
+        <v>29.9491456223644</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>2.357655477954207</v>
+        <v>29.94914557128007</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>23.68538954138407</v>
+        <v>29.94914561579323</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.22697747325915</v>
+        <v>29.9491456290998</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>9.976256879796257</v>
+        <v>29.94914558178937</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>32.61264897335766</v>
+        <v>29.94914562690389</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>32.91468663595495</v>
+        <v>29.94914562569289</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>27.79079500110338</v>
+        <v>29.94914562260387</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>36.21649333847612</v>
+        <v>29.94914564026868</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>39.99568960237973</v>
+        <v>29.94914564537974</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>9.805949225953601</v>
+        <v>29.9491455899414</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>31.73187316509122</v>
+        <v>29.94914563383043</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>38.30323781837086</v>
+        <v>29.94914564649717</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>11.63832008203491</v>
+        <v>29.94914559695443</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>30.08122336024238</v>
+        <v>29.94914563795786</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>35.81690911352764</v>
+        <v>29.94914565075783</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>4.666136272939926</v>
+        <v>29.94914559998926</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>27.05229636241442</v>
+        <v>29.94914564385923</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>32.48061690726684</v>
+        <v>29.9491456568967</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>14.08853554611163</v>
+        <v>29.94914561191792</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>37.27593544977846</v>
+        <v>29.9491456564057</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>43.57595476390667</v>
+        <v>29.9491456691671</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>41.00527803457909</v>
+        <v>29.9491456657604</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>49.62828784408804</v>
+        <v>29.94914568269792</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>53.8936838761127</v>
+        <v>29.94914568709492</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>20.54934138385343</v>
+        <v>29.94914563111414</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>43.87742310260545</v>
+        <v>29.94914567479222</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>50.7747561366423</v>
+        <v>29.94914568737786</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>40.89758243487714</v>
+        <v>29.9491456541781</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>35.89123454064003</v>
+        <v>29.9491456505528</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>44.44617300805236</v>
+        <v>29.94914566844943</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>48.27671806262137</v>
+        <v>29.94914567360806</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>17.10623336255437</v>
+        <v>29.9491456155255</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>39.91822686588218</v>
+        <v>29.94914566186377</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>46.49101412288872</v>
+        <v>29.94914567419012</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>17.93564514751159</v>
+        <v>29.94914562082356</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>37.08054277245579</v>
+        <v>29.94914566415236</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>42.80155465929293</v>
+        <v>29.94914567675842</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>12.06498180452587</v>
+        <v>29.94914562617327</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>35.30936924277082</v>
+        <v>29.94914567273587</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>40.72792568660533</v>
+        <v>29.94914568565992</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>22.01927804805824</v>
+        <v>29.94914563938013</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>46.02330328853447</v>
+        <v>29.94914568640078</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>52.31619768269788</v>
+        <v>29.94914569894403</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>49.90132174806361</v>
+        <v>29.94914569497609</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>58.65204190735245</v>
+        <v>29.94914571214079</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>62.95389189931466</v>
+        <v>29.94914571655051</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.62272099756532</v>
+        <v>29.94914565803967</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>52.81842381188654</v>
+        <v>29.94914570413154</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>59.71617822241679</v>
+        <v>29.94914571628564</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>42.25131288209566</v>
+        <v>29.94914565851686</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>37.310720008555</v>
+        <v>29.94914565474413</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>45.82811186405161</v>
+        <v>29.94914567245601</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>49.6576186307329</v>
+        <v>29.94914567759485</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>18.45626004062414</v>
+        <v>29.94914561961302</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>41.33305462892218</v>
+        <v>29.94914566595774</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>47.8761263804483</v>
+        <v>29.94914567810434</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>19.04468364960496</v>
+        <v>29.94914562467948</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>38.22561309026111</v>
+        <v>29.9491456679483</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>43.92045259074599</v>
+        <v>29.94914568040747</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>13.54760589674263</v>
+        <v>29.94914563063891</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>36.82439580373411</v>
+        <v>29.94914567715482</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>42.22571990904257</v>
+        <v>29.94914568996835</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>23.52559685857453</v>
+        <v>29.94914564385049</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>47.55104196599822</v>
+        <v>29.94914569079963</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>53.81578108633725</v>
+        <v>29.94914570319183</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>51.45413929059958</v>
+        <v>29.94914569908463</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>60.16812193478951</v>
+        <v>29.94914571607865</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>64.45900733540471</v>
+        <v>29.94914572046253</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>30.1144899899315</v>
+        <v>29.94914566203596</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>54.36367224932579</v>
+        <v>29.94914570817336</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>61.22877310457031</v>
+        <v>29.94914572011722</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>38.61912255160404</v>
+        <v>29.94914563984397</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>33.62132786028862</v>
+        <v>29.94914563613944</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>42.24405230189301</v>
+        <v>29.94914565378812</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>46.08494674125917</v>
+        <v>29.94914565898697</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>14.83737945911417</v>
+        <v>29.94914560228474</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>37.62269545617365</v>
+        <v>29.94914564747903</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>44.22146256707956</v>
+        <v>29.9491456600204</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>15.79688683207029</v>
+        <v>29.94914560898339</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.93487798718834</v>
+        <v>29.94914565102055</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>40.68682901375858</v>
+        <v>29.94914566379408</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>9.394135286794906</v>
+        <v>29.94914561400244</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>32.63975161681798</v>
+        <v>29.94914565905756</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>38.07593969402942</v>
+        <v>29.94914567220265</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>19.36189999292344</v>
+        <v>29.94914562634016</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>43.38988363845317</v>
+        <v>29.94914567194576</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>49.7159979498236</v>
+        <v>29.94914568466706</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>47.32680021098074</v>
+        <v>29.94914568067442</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>56.14686781768975</v>
+        <v>29.94914569761589</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>60.46760135170227</v>
+        <v>29.94914570206406</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>26.0505004724628</v>
+        <v>29.94914564472867</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>50.23912350592124</v>
+        <v>29.94914568982551</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>57.1644526224058</v>
+        <v>29.94914570218812</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>9.011821923995708</v>
+        <v>29.94914551662606</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>23.62736151319014</v>
+        <v>29.94914555130548</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.58403587460036</v>
+        <v>29.94914556325636</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>4.755103356231601</v>
+        <v>29.94914552077174</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>23.30581436193129</v>
+        <v>29.94914555896257</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.04749801167651</v>
+        <v>29.94914557051182</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>10.81433869774868</v>
+        <v>29.94914552609322</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.01600449490873</v>
+        <v>29.94914556430781</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>35.09331809580973</v>
+        <v>29.94914557596312</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>30.42955278921684</v>
+        <v>29.94914557503508</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>36.86559825529299</v>
+        <v>29.94914558944082</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>39.68065256069052</v>
+        <v>29.94914559419984</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>14.78338053831386</v>
+        <v>29.94914554891031</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>31.15300370602306</v>
+        <v>29.94914558433418</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>37.93309666524971</v>
+        <v>29.94914559621182</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>12.27363950157826</v>
+        <v>29.94914558763913</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>30.44369381643188</v>
+        <v>29.9491456288678</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>35.696285204717</v>
+        <v>29.94914564174626</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>4.750116273707807</v>
+        <v>29.94914559041185</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>26.26579961264716</v>
+        <v>29.94914563432225</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>31.73682648366478</v>
+        <v>29.94914564745187</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>12.13834446437315</v>
+        <v>29.94914560165053</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>35.02203096357303</v>
+        <v>29.94914564639777</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>13.56708156866381</v>
+        <v>29.94914553538722</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.82783584599668</v>
+        <v>29.94914557204681</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>33.75111528340478</v>
+        <v>29.94914558382657</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>10.29078077185459</v>
+        <v>29.94914554158012</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.62484658581646</v>
+        <v>29.94914558205652</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>34.34548984851992</v>
+        <v>29.94914559348406</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>16.69589723010418</v>
+        <v>29.94914554798822</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.64137795410054</v>
+        <v>29.94914558835249</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>41.69843303366633</v>
+        <v>29.94914559982878</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>37.31927550686935</v>
+        <v>29.94914559900223</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>43.88871334409349</v>
+        <v>29.94914561373287</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>46.73823183685501</v>
+        <v>29.94914561853168</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>20.87109907881097</v>
+        <v>29.94914557063539</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>38.02328561093994</v>
+        <v>29.9491456081403</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>44.777486077316</v>
+        <v>29.94914561963348</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>18.20640155621658</v>
+        <v>29.94914561188901</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>37.10252653523918</v>
+        <v>29.9491456554487</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>42.34447943088291</v>
+        <v>29.94914566814631</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>11.79477296577394</v>
+        <v>29.9491456169078</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>34.18569227769952</v>
+        <v>29.94914566349564</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>39.66384039131068</v>
+        <v>29.94914567651736</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>19.67299553265455</v>
+        <v>29.94914562954281</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>43.39421326654961</v>
+        <v>29.94914567682549</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>14.23473002993438</v>
+        <v>29.94914553920287</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.54639875705367</v>
+        <v>29.94914557578663</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>34.44509385569647</v>
+        <v>29.9491455874396</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>11.29294031744486</v>
+        <v>29.94914554596594</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>30.67088201123969</v>
+        <v>29.94914558636526</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>35.37605896264005</v>
+        <v>29.94914559770208</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>17.69966376531832</v>
+        <v>29.94914555242048</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>37.67884586680559</v>
+        <v>29.94914559269205</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>42.71388550096167</v>
+        <v>29.9491456040451</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>38.447199839717</v>
+        <v>29.9491456032105</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>44.99614205481456</v>
+        <v>29.94914561781385</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>47.84609090283469</v>
+        <v>29.94914562259869</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>21.90520955311937</v>
+        <v>29.94914557465695</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>39.13910986962158</v>
+        <v>29.94914561220239</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>45.85681748971616</v>
+        <v>29.94914562351974</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>19.15761093031318</v>
+        <v>29.94914561570788</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>38.09529956408264</v>
+        <v>29.94914565917566</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>43.31916398458647</v>
+        <v>29.94914567174871</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>13.12697375082504</v>
+        <v>29.94914562132191</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>35.55726680135531</v>
+        <v>29.94914566782746</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>41.02560208789953</v>
+        <v>29.94914568076408</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>21.03162167622274</v>
+        <v>29.94914563398086</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>44.7787682106438</v>
+        <v>29.94914568116162</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>12.11621067437752</v>
+        <v>29.9491455259049</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>27.34909033969557</v>
+        <v>29.94914556138105</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>32.30654332875464</v>
+        <v>29.94914557334582</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>8.369861655877653</v>
+        <v>29.94914553187765</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>27.69271568476094</v>
+        <v>29.94914557098701</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>32.43398750460992</v>
+        <v>29.94914558265878</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>14.80788128285435</v>
+        <v>29.94914553752261</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>34.75917158468971</v>
+        <v>29.94914557659634</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>39.84469122365733</v>
+        <v>29.94914558826977</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>35.38323952171847</v>
+        <v>29.94914558723092</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>41.993328608589</v>
+        <v>29.94914560168532</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>44.84718214710799</v>
+        <v>29.94914560654955</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>18.99013803768241</v>
+        <v>29.94914555980822</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>36.07857460196654</v>
+        <v>29.9491455963828</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>42.87553039614026</v>
+        <v>29.94914560813436</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>16.37389552773384</v>
+        <v>29.94914559904701</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>35.25712340039328</v>
+        <v>29.94914564122258</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>40.52021210372082</v>
+        <v>29.94914565415544</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>9.410966098772043</v>
+        <v>29.94914560375625</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>31.79286220779281</v>
+        <v>29.94914564875348</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>37.28316696728325</v>
+        <v>29.94914566207536</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>17.30149008219414</v>
+        <v>29.94914561541526</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>41.04144865051587</v>
+        <v>29.94914566119479</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>40.90929121178879</v>
+        <v>29.94914565926837</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>36.00129121283909</v>
+        <v>29.94914565417784</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>44.73685493974871</v>
+        <v>29.94914567206359</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>48.40825423064791</v>
+        <v>29.94914567720726</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>18.19316683073043</v>
+        <v>29.94914562123002</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>40.97687002600132</v>
+        <v>29.94914566522424</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>47.57743554727395</v>
+        <v>29.94914567784619</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>17.00572205655178</v>
+        <v>29.94914562469164</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>36.15427878128633</v>
+        <v>29.94914566612953</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>41.86685171066238</v>
+        <v>29.94914567895012</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>10.58513360850042</v>
+        <v>29.94914562875588</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>33.76077365292132</v>
+        <v>29.94914567295955</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>39.21315796031369</v>
+        <v>29.94914568599618</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>20.14974026683137</v>
+        <v>29.94914564152795</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>44.21049705697193</v>
+        <v>29.94914568650634</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>50.48905278629438</v>
+        <v>29.94914569926119</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>48.34802938762698</v>
+        <v>29.9491456938591</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>57.30978170056291</v>
+        <v>29.94914571096113</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>61.44161351513425</v>
+        <v>29.94914571538329</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>28.14137002005426</v>
+        <v>29.94914565918894</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>52.1322928380376</v>
+        <v>29.94914570269752</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>59.13556267818574</v>
+        <v>29.94914571533668</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>49.28899263593809</v>
+        <v>29.94914568950135</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>44.51726282857668</v>
+        <v>29.94914568386226</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>53.38643330552756</v>
+        <v>29.94914570197106</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>57.0989246755781</v>
+        <v>29.94914570712085</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>25.90486996288855</v>
+        <v>29.9491456485345</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>49.58549593306654</v>
+        <v>29.94914569497613</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>56.18084364440268</v>
+        <v>29.94914570718836</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>23.57917592538411</v>
+        <v>29.94914565001847</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>43.44850449604001</v>
+        <v>29.94914569381698</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>49.13520224507474</v>
+        <v>29.94914570637899</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>18.27244303246013</v>
+        <v>29.94914565637611</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>42.3167149106838</v>
+        <v>29.94914570328499</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>47.75151502586446</v>
+        <v>29.94914571616199</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>28.4009185883576</v>
+        <v>29.94914567053918</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>53.30000167515699</v>
+        <v>29.94914571808726</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>59.56180947312571</v>
+        <v>29.94914573056298</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>57.59482942922478</v>
+        <v>29.94914572457807</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>66.69019677023418</v>
+        <v>29.94914574189419</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>70.85032614904782</v>
+        <v>29.94914574630054</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>36.56428291689044</v>
+        <v>29.94914568762665</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>61.43214466120121</v>
+        <v>29.94914573353194</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>68.43172777371456</v>
+        <v>29.94914574567873</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>50.65588313941207</v>
+        <v>29.94914569371171</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>45.95483338241008</v>
+        <v>29.94914568794393</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>54.78578767112638</v>
+        <v>29.94914570586761</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>58.49544338533209</v>
+        <v>29.94914571099519</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>27.27277795220338</v>
+        <v>29.94914565252119</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>51.01358082732466</v>
+        <v>29.94914569897151</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>57.57812497833341</v>
+        <v>29.94914571099513</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>24.69527005537166</v>
+        <v>29.94914565374895</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>44.598873952114</v>
+        <v>29.94914569749027</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>50.25811194651195</v>
+        <v>29.9491457098978</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>19.76301964875394</v>
+        <v>29.94914566071261</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>43.83420396212016</v>
+        <v>29.94914570757206</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>49.25091870668133</v>
+        <v>29.94914572033789</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.92150666432751</v>
+        <v>29.94914567488762</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>54.83940461597736</v>
+        <v>29.94914572236661</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>61.07212790206893</v>
+        <v>29.94914573468485</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>59.16227713935334</v>
+        <v>29.94914572858186</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>68.22009848208749</v>
+        <v>29.94914574572405</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>72.36807871375943</v>
+        <v>29.94914575010289</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>38.07060764712321</v>
+        <v>29.94914569152728</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>62.9877074271749</v>
+        <v>29.94914573747641</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>69.95364548055299</v>
+        <v>29.94914574940355</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>46.95666054260259</v>
+        <v>29.94914567411816</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>42.19925797291904</v>
+        <v>29.94914566838024</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>51.13771128712412</v>
+        <v>29.94914568625288</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>54.85834247003625</v>
+        <v>29.94914569150054</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>23.5900004712754</v>
+        <v>29.94914563425076</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>47.25137225072908</v>
+        <v>29.94914567957204</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>53.86998503418594</v>
+        <v>29.94914569205334</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>21.40210408263766</v>
+        <v>29.94914563722813</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>41.26607359425157</v>
+        <v>29.94914567972472</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>46.98428343589805</v>
+        <v>29.9491456925027</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>15.56358623622258</v>
+        <v>29.94914564330635</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>39.61417080168182</v>
+        <v>29.94914568871077</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>45.06671267991935</v>
+        <v>29.94914570184925</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>25.69653324896911</v>
+        <v>29.94914565652649</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>50.62281919221324</v>
+        <v>29.94914570264819</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>56.9177117722125</v>
+        <v>29.9491457153497</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>54.98501519771554</v>
+        <v>29.94914570934386</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>64.15090824447499</v>
+        <v>29.94914572644296</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>68.3274416137581</v>
+        <v>29.94914573092638</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>33.96008811800399</v>
+        <v>29.94914567338409</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>58.82614356664691</v>
+        <v>29.94914571831686</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>65.85207160952244</v>
+        <v>29.94914573071172</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>1.067719185267592</v>
+        <v>29.94914548229007</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>13.13183945752326</v>
+        <v>29.94914551386926</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>17.54509603735169</v>
+        <v>29.94914552494509</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-3.991123866422772</v>
+        <v>29.94914548375918</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>11.35823453436758</v>
+        <v>29.94914551850303</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>15.65481763573743</v>
+        <v>29.94914552929034</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>0.7001761536971181</v>
+        <v>29.94914548688595</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>16.79050695844436</v>
+        <v>29.94914552162469</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>21.35951959099375</v>
+        <v>29.94914553248951</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>17.17830081109427</v>
+        <v>29.94914553462551</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>22.76710519518969</v>
+        <v>29.94914554799296</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>25.4492664411163</v>
+        <v>29.94914555242925</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>3.145844941256055</v>
+        <v>29.9491455109586</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>17.10055253527149</v>
+        <v>29.949145543865</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.99915355732612</v>
+        <v>29.94914555480502</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>3.70813048188354</v>
+        <v>29.9491455487425</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>19.16600070883293</v>
+        <v>29.94914558663428</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>24.36247580257039</v>
+        <v>29.9491455988233</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-4.196261440319766</v>
+        <v>29.94914554947393</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>14.05687295698772</v>
+        <v>29.94914558985803</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>19.50739901725279</v>
+        <v>29.94914560236912</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>2.004375652996096</v>
+        <v>29.94914555843913</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.6354165655548</v>
+        <v>29.9491455995174</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>5.033911691316383</v>
+        <v>29.94914549832324</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>17.67738683079466</v>
+        <v>29.9491455317301</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.07149726648267</v>
+        <v>29.94914554269038</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>0.8793265811103588</v>
+        <v>29.94914550167187</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>16.94042409813413</v>
+        <v>29.94914553853655</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>21.22967720530353</v>
+        <v>29.94914554925084</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>5.862993037490725</v>
+        <v>29.94914550570837</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>22.62149626877705</v>
+        <v>29.94914554242973</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.18403767959978</v>
+        <v>29.9491455531717</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>23.24411801730028</v>
+        <v>29.94914555540142</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.95402560205889</v>
+        <v>29.94914556907887</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>31.68011057849188</v>
+        <v>29.94914557358378</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>8.479727632804504</v>
+        <v>29.94914552967543</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>23.15349764545835</v>
+        <v>29.94914556453969</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.03230888198854</v>
+        <v>29.9491455751768</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>8.951634761721202</v>
+        <v>29.94914556998894</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>25.06684986261673</v>
+        <v>29.94914561005267</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.27446844352011</v>
+        <v>29.94914562214413</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>2.072727848906016</v>
+        <v>29.94914557284322</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>21.12819881173984</v>
+        <v>29.94914561573408</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>26.60673148492894</v>
+        <v>29.94914562821198</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>8.700223025848469</v>
+        <v>29.94914558301104</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.08948396616152</v>
+        <v>29.94914562644959</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>5.679236813203598</v>
+        <v>29.9491455022124</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>18.3765715337924</v>
+        <v>29.94914553555005</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.75167257147911</v>
+        <v>29.94914554639996</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>1.839702996582467</v>
+        <v>29.9491455061053</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>17.95266691325245</v>
+        <v>29.94914554290357</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>22.23106707487036</v>
+        <v>29.94914555353812</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>6.826787402956988</v>
+        <v>29.94914551019666</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>23.6245442122576</v>
+        <v>29.9491455468346</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.170264881015</v>
+        <v>29.94914555746844</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>24.32588517846851</v>
+        <v>29.9491455596492</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>30.0182754973456</v>
+        <v>29.94914557320439</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>32.74811313810584</v>
+        <v>29.94914557769966</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>9.473393983509698</v>
+        <v>29.94914553374828</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>24.23051698833978</v>
+        <v>29.94914556864898</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>30.07921056816856</v>
+        <v>29.94914557913303</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>9.85632203818491</v>
+        <v>29.94914557385575</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.01606765813845</v>
+        <v>29.94914561383191</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>31.20966781874952</v>
+        <v>29.94914562581659</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>3.333809806610933</v>
+        <v>29.94914557727799</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>22.43653216807581</v>
+        <v>29.94914562009397</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>27.90871808883859</v>
+        <v>29.94914563249814</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>9.98501212354661</v>
+        <v>29.94914558747418</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>30.40539076445495</v>
+        <v>29.94914563081636</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>3.685012129671982</v>
+        <v>29.94914549061456</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>16.29173533032616</v>
+        <v>29.94914552291869</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>20.71171758526577</v>
+        <v>29.94914553402156</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-0.9126408662371333</v>
+        <v>29.94914549374742</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>15.12171512837033</v>
+        <v>29.94914552933138</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>19.42466807951</v>
+        <v>29.94914554024691</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>4.099781185174734</v>
+        <v>29.94914549715791</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>20.85035987310455</v>
+        <v>29.94914553268102</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>25.43384356307634</v>
+        <v>29.94914554357405</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>21.42045680545148</v>
+        <v>29.94914554559039</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>27.16616521354004</v>
+        <v>29.94914555899212</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.89447707580863</v>
+        <v>29.94914556351882</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>6.707751888680246</v>
+        <v>29.94914552074165</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>21.30904444652023</v>
+        <v>29.94914555471142</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>27.22265688797476</v>
+        <v>29.94914556555238</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>7.245332419307058</v>
+        <v>29.94914555898668</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>23.3384334867262</v>
+        <v>29.94914559774034</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.56493301135824</v>
+        <v>29.94914561000307</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-0.1509572694572299</v>
+        <v>29.94914556149646</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>18.88048346155559</v>
+        <v>29.94914560287465</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>24.36970793253263</v>
+        <v>29.94914561558699</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>6.489935311372115</v>
+        <v>29.94914557083271</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.88438680271056</v>
+        <v>29.9491456128521</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>27.47262095362281</v>
+        <v>29.94914561179119</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>22.73806245759806</v>
+        <v>29.94914560977197</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>30.45422059667248</v>
+        <v>29.94914562635469</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>34.19183790856694</v>
+        <v>29.94914563127189</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>6.388225186893283</v>
+        <v>29.94914557954088</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>26.32086007065656</v>
+        <v>29.94914562053424</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>32.66560425506152</v>
+        <v>29.94914563255735</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>9.652315500206651</v>
+        <v>29.9491455876576</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>26.29891961419625</v>
+        <v>29.94914562591876</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>31.86917219768461</v>
+        <v>29.94914563808882</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>2.526719886913817</v>
+        <v>29.94914558992954</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>22.67508962607184</v>
+        <v>29.94914563076121</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>28.05750693717604</v>
+        <v>29.94914564322553</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>10.96241103350645</v>
+        <v>29.94914560065797</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.99549482522162</v>
+        <v>29.94914564214553</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.11840005056283</v>
+        <v>29.94914565431696</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>35.74134040696623</v>
+        <v>29.94914565195599</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>43.67147578229714</v>
+        <v>29.94914566788007</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>47.8454794249344</v>
+        <v>29.9491456721009</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>17.04838644381748</v>
+        <v>29.94914561978822</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.34431544651385</v>
+        <v>29.94914566062919</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>45.00345041725809</v>
+        <v>29.9491456725725</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.95482592378539</v>
+        <v>29.94914563861358</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>30.31878360404321</v>
+        <v>29.94914563607652</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>38.15676163778028</v>
+        <v>29.94914565288679</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>41.94969383976385</v>
+        <v>29.94914565785665</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>13.22111517344918</v>
+        <v>29.9491456036144</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>33.983977324717</v>
+        <v>29.94914564693517</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>40.33730586922796</v>
+        <v>29.94914565865242</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>15.58317160691897</v>
+        <v>29.94914561018315</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>32.88626730854193</v>
+        <v>29.94914565065223</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>38.4512989435192</v>
+        <v>29.94914566264688</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>9.486327139127802</v>
+        <v>29.94914561463427</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>30.43587261046052</v>
+        <v>29.94914565800856</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>35.82041836669043</v>
+        <v>29.94914567038081</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>18.4238752923687</v>
+        <v>29.94914562659095</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>40.22057107534506</v>
+        <v>29.94914567048155</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>46.34606032980275</v>
+        <v>29.94914568245583</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>44.10134657726645</v>
+        <v>29.94914567955577</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>52.15161375380539</v>
+        <v>29.9491456957004</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>56.36705286888679</v>
+        <v>29.94914569993963</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>24.63965037110754</v>
+        <v>29.94914564522048</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>46.74625415027548</v>
+        <v>29.94914568835615</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>53.41396480643199</v>
+        <v>29.94914569990561</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>36.25675328027528</v>
+        <v>29.94914564287145</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>31.67869820933347</v>
+        <v>29.94914564017929</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>39.48276699190173</v>
+        <v>29.94914565681644</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>43.27554538443373</v>
+        <v>29.949145661769</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>14.51456351203234</v>
+        <v>29.94914560762024</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>35.34110086299893</v>
+        <v>29.9491456509476</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>41.66794721900995</v>
+        <v>29.94914566250039</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>16.64734701321136</v>
+        <v>29.94914561396901</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>33.98771144135996</v>
+        <v>29.94914565438373</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>39.52992935336177</v>
+        <v>29.94914566624348</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>10.90242051106941</v>
+        <v>29.94914561899733</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.88692119464402</v>
+        <v>29.94914566232922</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>37.25715597507499</v>
+        <v>29.94914567460182</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>19.86657556253911</v>
+        <v>29.94914563097279</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>41.68728347275592</v>
+        <v>29.9491456747993</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>47.78815473709983</v>
+        <v>29.9491456866346</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>45.58915049430731</v>
+        <v>29.94914568358869</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>53.60611172951332</v>
+        <v>29.94914569957314</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>57.81231301105675</v>
+        <v>29.94914570378928</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>26.06883147792521</v>
+        <v>29.94914564914654</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>48.2278342978893</v>
+        <v>29.94914569232668</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>54.86652782553158</v>
+        <v>29.94914570368243</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>32.76852631131372</v>
+        <v>29.94914562519693</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.14392006846976</v>
+        <v>29.94914562257524</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.04400268851309</v>
+        <v>29.94914563914339</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>39.84621788580626</v>
+        <v>29.94914564414895</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>11.05192484903211</v>
+        <v>29.94914559123609</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>31.78361923199422</v>
+        <v>29.94914563345549</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.15942361495489</v>
+        <v>29.94914564537785</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>13.54624486348535</v>
+        <v>29.94914559910741</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.83718633192707</v>
+        <v>29.94914563834052</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.42885253684397</v>
+        <v>29.94914565050075</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>6.94421764279938</v>
+        <v>29.9491456032396</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>27.88755767346536</v>
+        <v>29.94914564517871</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>33.28651944732425</v>
+        <v>29.94914565776529</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>15.88951001056264</v>
+        <v>29.9491456143815</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>37.70225118585473</v>
+        <v>29.94914565692184</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>43.85637800669284</v>
+        <v>29.94914566907098</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>41.64057595610023</v>
+        <v>29.94914566613749</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>49.75449462063817</v>
+        <v>29.9491456820672</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>53.98649441143192</v>
+        <v>29.9491456863417</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>22.18512082459816</v>
+        <v>29.94914563275336</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>44.27999058815297</v>
+        <v>29.94914567493216</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>50.9712327567045</v>
+        <v>29.94914568668189</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>9.820824252635596</v>
+        <v>29.94914552449039</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>24.35731930191094</v>
+        <v>29.94914555837956</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.4916502239505</v>
+        <v>29.94914557024857</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>5.702053521393832</v>
+        <v>29.94914552915185</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>24.20302031013763</v>
+        <v>29.94914556644444</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.12551128076667</v>
+        <v>29.94914557789775</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>11.78385565058516</v>
+        <v>29.94914553444045</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>30.97772992977279</v>
+        <v>29.94914557180561</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>36.22930636091507</v>
+        <v>29.94914558337934</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>31.63646454123008</v>
+        <v>29.94914558214496</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>38.0428058443318</v>
+        <v>29.94914559628541</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>40.98747840803466</v>
+        <v>29.94914560103282</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>16.22074216320206</v>
+        <v>29.94914555683427</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>32.56057177285037</v>
+        <v>29.94914559133591</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>39.59730364367685</v>
+        <v>29.94914560319648</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>11.8035475439256</v>
+        <v>29.94914559339569</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.87156028647357</v>
+        <v>29.94914563358858</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>35.33395738996276</v>
+        <v>29.94914564638085</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>4.412802129164877</v>
+        <v>29.94914559673585</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>25.81708804360726</v>
+        <v>29.94914563947084</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>31.50927733713511</v>
+        <v>29.94914565248555</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>11.62383574299572</v>
+        <v>29.94914560760314</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>34.46627056944292</v>
+        <v>29.94914565124555</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>14.46602551658228</v>
+        <v>29.94914554325042</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.65250873863863</v>
+        <v>29.94914557908521</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>34.75585967116785</v>
+        <v>29.94914559078128</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>11.34628643559592</v>
+        <v>29.94914554992688</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>30.63505151822371</v>
+        <v>29.94914558945256</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>35.54041008782384</v>
+        <v>29.94914560078782</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>17.78314139261759</v>
+        <v>29.94914555632076</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>37.72762463518361</v>
+        <v>29.94914559579805</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.96193395240627</v>
+        <v>29.9491456071925</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>38.66397441655839</v>
+        <v>29.94914560606823</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>45.20561579956349</v>
+        <v>29.94914562052931</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>48.18557416074987</v>
+        <v>29.9491456253133</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>22.44179794559782</v>
+        <v>29.94914557856199</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>39.5691122791464</v>
+        <v>29.94914561510577</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>46.58351482348111</v>
+        <v>29.94914562657944</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>17.83342118231183</v>
+        <v>29.94914561759686</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>36.63306262389878</v>
+        <v>29.94914566007679</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>42.08727619777909</v>
+        <v>29.94914567268377</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>11.5758509603287</v>
+        <v>29.94914562313758</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>33.8596539224882</v>
+        <v>29.94914566848399</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>39.56326175731601</v>
+        <v>29.94914568139391</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>19.28741436953155</v>
+        <v>29.94914563542007</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>42.97494678054554</v>
+        <v>29.94914568155067</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>15.13297419288738</v>
+        <v>29.94914554694891</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>30.37191775131085</v>
+        <v>29.94914558271173</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>35.45107693966677</v>
+        <v>29.94914559428143</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>12.35063793754694</v>
+        <v>29.94914555417679</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>31.68436144509227</v>
+        <v>29.94914559362737</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>36.57516223666711</v>
+        <v>29.9491456048736</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>18.79038081479818</v>
+        <v>29.94914556062169</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>38.76999336661505</v>
+        <v>29.9491456000104</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>43.98286969109255</v>
+        <v>29.94914561128262</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>39.79910861596834</v>
+        <v>29.94914561015373</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>46.32076305136776</v>
+        <v>29.94914562449138</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>49.3008790280624</v>
+        <v>29.94914562926119</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>23.48005528848219</v>
+        <v>29.9491455824605</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>40.69021214864067</v>
+        <v>29.94914561904961</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>47.66833890692567</v>
+        <v>29.94914563034739</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>18.79614621426122</v>
+        <v>29.94914562132894</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>37.63914116975351</v>
+        <v>29.94914566372212</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>43.07545300078068</v>
+        <v>29.94914567620473</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>12.92310841346736</v>
+        <v>29.94914562744352</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>35.24763514556365</v>
+        <v>29.94914567271079</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>40.94220890814276</v>
+        <v>29.94914568553744</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>20.6645165667306</v>
+        <v>29.94914563976016</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>44.37971658538888</v>
+        <v>29.94914568579447</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>13.01201235258311</v>
+        <v>29.94914553361546</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.1680425633755</v>
+        <v>29.94914556829074</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>33.30605150864132</v>
+        <v>29.9491455801721</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>9.416068871414545</v>
+        <v>29.94914554007154</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.69185196898271</v>
+        <v>29.94914557826403</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>33.61801200807554</v>
+        <v>29.94914558983996</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>15.88452384310432</v>
+        <v>29.94914554569234</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>35.83265933876087</v>
+        <v>29.94914558390461</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>41.09558553322552</v>
+        <v>29.94914559549703</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>36.71504841780632</v>
+        <v>29.94914559415257</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>43.29632961945559</v>
+        <v>29.94914560834596</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>46.28135115929489</v>
+        <v>29.94914561320117</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>20.55187597511211</v>
+        <v>29.94914556756585</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>37.6132745990916</v>
+        <v>29.94914560320841</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>44.67106602753083</v>
+        <v>29.94914561494208</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>15.97681879948247</v>
+        <v>29.94914560467737</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>34.76028360005679</v>
+        <v>29.94914564580509</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>40.23616537183938</v>
+        <v>29.94914565864959</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>9.161134892210413</v>
+        <v>29.94914560991241</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>31.43324395722739</v>
+        <v>29.94914565371255</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>37.14917976456529</v>
+        <v>29.94914566691907</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>16.88052186332767</v>
+        <v>29.94914562121532</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>40.58377842894473</v>
+        <v>29.94914566587666</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>40.5658084280781</v>
+        <v>29.94914566402023</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>35.70005894824569</v>
+        <v>29.94914565866871</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>44.38921919481468</v>
+        <v>29.94914567622078</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>48.20636780092693</v>
+        <v>29.94914568133848</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>18.10677022877091</v>
+        <v>29.94914562667391</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>40.90932973104991</v>
+        <v>29.94914566948161</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>47.72687847565926</v>
+        <v>29.94914568202276</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>16.91430160113256</v>
+        <v>29.94914562955701</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>35.99248019598789</v>
+        <v>29.9491456699616</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>41.9152826735985</v>
+        <v>29.94914568268107</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>10.78321422660893</v>
+        <v>29.94914563414389</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>33.88901812370068</v>
+        <v>29.94914567717414</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>39.57102315292423</v>
+        <v>29.94914569008184</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>20.20069586022903</v>
+        <v>29.94914564648876</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>44.26007493568515</v>
+        <v>29.94914569036425</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>50.74873690218809</v>
+        <v>29.94914570301002</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>48.71989636365358</v>
+        <v>29.94914569732108</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>57.66132361561462</v>
+        <v>29.94914571408895</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>61.93238101946072</v>
+        <v>29.94914571848337</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.69604060080849</v>
+        <v>29.94914566365895</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>52.69730867211729</v>
+        <v>29.94914570595615</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>59.94367317153497</v>
+        <v>29.94914571851701</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>49.08529950586812</v>
+        <v>29.94914569412824</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>44.36203912482429</v>
+        <v>29.94914568824273</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>53.18708347792947</v>
+        <v>29.94914570601132</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>57.04612018136954</v>
+        <v>29.9491457111315</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>25.96047865171142</v>
+        <v>29.94914565392072</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>49.66611078286249</v>
+        <v>29.94914569912539</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>56.48171914622785</v>
+        <v>29.94914571125515</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>23.6032661283813</v>
+        <v>29.94914565479758</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>43.40735426405192</v>
+        <v>29.9491456975179</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>49.30742403302347</v>
+        <v>29.94914570997584</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>18.60590402483059</v>
+        <v>29.94914566162298</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>42.58432780928888</v>
+        <v>29.94914570729164</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>48.25364803563349</v>
+        <v>29.94914572004376</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.59945701081176</v>
+        <v>29.94914567537248</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>53.50435497460188</v>
+        <v>29.9491457217687</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>59.98014990906866</v>
+        <v>29.94914573413466</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>58.12945693042479</v>
+        <v>29.94914572787391</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>67.20732957287559</v>
+        <v>29.94914574484787</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>71.50795597358835</v>
+        <v>29.94914574922439</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>37.27801606956672</v>
+        <v>29.94914569198647</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>62.16135833136967</v>
+        <v>29.94914573662619</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>69.40802856458583</v>
+        <v>29.94914574869396</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>50.47283697170199</v>
+        <v>29.94914569824724</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>45.82114962279126</v>
+        <v>29.94914569223713</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>54.60873065253982</v>
+        <v>29.94914570982487</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>58.4646259479524</v>
+        <v>29.94914571492313</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>27.34744642629253</v>
+        <v>29.94914565782043</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>51.11435999826999</v>
+        <v>29.94914570303981</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>57.89940465276913</v>
+        <v>29.94914571498157</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>24.73352783034979</v>
+        <v>29.94914565844462</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>44.57338128349616</v>
+        <v>29.94914570111185</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>50.44624559086157</v>
+        <v>29.94914571341601</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>20.11296662048049</v>
+        <v>29.94914566585399</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>44.11927903272269</v>
+        <v>29.9491457114753</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>49.77129765591285</v>
+        <v>29.94914572411865</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>30.14014123571335</v>
+        <v>29.9491456796252</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>55.0652389888889</v>
+        <v>29.94914572595681</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>61.51241743918607</v>
+        <v>29.94914573816672</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>59.71882406119819</v>
+        <v>29.94914573179321</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>68.75989694477487</v>
+        <v>29.94914574859649</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>73.04818049282845</v>
+        <v>29.94914575294586</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>38.80379485864733</v>
+        <v>29.94914569580263</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>63.73742116258714</v>
+        <v>29.9491457404904</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>70.95064926043231</v>
+        <v>29.94914575233929</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>46.71474558666857</v>
+        <v>29.94914567870419</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>42.00719550939952</v>
+        <v>29.94914567270674</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>50.90025591716838</v>
+        <v>29.94914569024927</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>54.76807784432056</v>
+        <v>29.94914569547443</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>23.61221675597626</v>
+        <v>29.94914563955671</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>47.29645818714397</v>
+        <v>29.94914568368047</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>54.13514096974515</v>
+        <v>29.94914569607957</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>21.3980740580766</v>
+        <v>29.94914564194963</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>41.19377537613096</v>
+        <v>29.94914568339854</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>47.12600529036382</v>
+        <v>29.94914569607343</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>15.86570087730915</v>
+        <v>29.94914564850483</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>39.84815405092625</v>
+        <v>29.94914569271171</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>45.53557729717915</v>
+        <v>29.94914570572128</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>25.85857883752231</v>
+        <v>29.94914566131011</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>50.78802927705043</v>
+        <v>29.9491457063129</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>57.29720063109001</v>
+        <v>29.94914571890551</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>55.48380376922886</v>
+        <v>29.94914571261771</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>64.63101724051968</v>
+        <v>29.94914572938324</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>68.94829290694589</v>
+        <v>29.94914573384138</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>34.64167648140491</v>
+        <v>29.94914567769108</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>59.52122206830784</v>
+        <v>29.94914572139596</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>66.79432015060175</v>
+        <v>29.94914573371101</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.177</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.242</v>
+        <v>15.547</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.001</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.329</v>
+        <v>20.845</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.508</v>
+        <v>8.340999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.94914551411388</v>
+        <v>14.61708633855065</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.94914554890358</v>
+        <v>17.89412056545407</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.94914556120501</v>
+        <v>25.98278744582553</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.94914551835856</v>
+        <v>0.5936292797291962</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.94914555664016</v>
+        <v>18.86223425561981</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.94914556853699</v>
+        <v>22.15525751323571</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.94914552361883</v>
+        <v>4.665117541066738</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.94914556196382</v>
+        <v>31.87891111573455</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.94914557396857</v>
+        <v>37.5030247575104</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.9491455732708</v>
+        <v>18.81400938059353</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.94914558787124</v>
+        <v>26.74377115940033</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.94914559281246</v>
+        <v>28.74289870351143</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.9491455472759</v>
+        <v>14.05247621830812</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.94914558284582</v>
+        <v>16.92005757806011</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.94914559508239</v>
+        <v>29.13758516540987</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.94914558545694</v>
+        <v>17.86586256293609</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.94914562681826</v>
+        <v>24.24652432838571</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.94914564015495</v>
+        <v>29.82975159067685</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.94914558834027</v>
+        <v>0.5534038270586485</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.94914563234153</v>
+        <v>11.56081053580935</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.94914564594048</v>
+        <v>16.80954362879628</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.94914559950912</v>
+        <v>-2.032935607873267</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.94914564441269</v>
+        <v>22.53566896328642</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.94914553326228</v>
+        <v>15.39647971432985</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.94914557005552</v>
+        <v>28.38228162795052</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.94914558219201</v>
+        <v>32.96078411791563</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.94914553959498</v>
+        <v>4.323612480958904</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.94914558017781</v>
+        <v>34.87487255435853</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.94914559196701</v>
+        <v>36.29214798327298</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.94914554598544</v>
+        <v>8.913641349730151</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.94914558650537</v>
+        <v>49.51707252721746</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.9491455983388</v>
+        <v>51.58479242854168</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.94914559776032</v>
+        <v>47.8414266049628</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.94914561269238</v>
+        <v>55.00176179994641</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.94914561767827</v>
+        <v>56.10450235257286</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.94914556949783</v>
+        <v>25.94390451124557</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.9491456071777</v>
+        <v>44.83370501218351</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.9491456190289</v>
+        <v>52.64625518651916</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.94914561027586</v>
+        <v>20.98551889391903</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.9491456540035</v>
+        <v>38.78990179321942</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.94914566716739</v>
+        <v>42.74776468775949</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.94914561544991</v>
+        <v>8.270385454231263</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.949145662154</v>
+        <v>34.57899890285665</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.94914567566532</v>
+        <v>39.32033647717553</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.94914562807301</v>
+        <v>9.437134749879034</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.94914567555005</v>
+        <v>50.16672735882759</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.94914553714942</v>
+        <v>7.701076573754612</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.94914557386748</v>
+        <v>21.94386377114365</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.94914558587651</v>
+        <v>28.00708962247572</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.94914554405667</v>
+        <v>0.7863047608181368</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.94914558456176</v>
+        <v>32.10188640259926</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.94914559626202</v>
+        <v>35.57962073758281</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.94914555050124</v>
+        <v>5.149097663550531</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.94914559092926</v>
+        <v>47.33019160533728</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.94914560263959</v>
+        <v>51.00558307281476</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.94914560204721</v>
+        <v>48.25922583630992</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.94914561685153</v>
+        <v>54.36884777573455</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.94914562182345</v>
+        <v>57.64337683153451</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.94914557359354</v>
+        <v>18.2811002565537</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.94914561131823</v>
+        <v>40.48981860035979</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.94914562299153</v>
+        <v>49.95291775218554</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.94914561419504</v>
+        <v>13.03685303623412</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.94914565783185</v>
+        <v>32.34017053520106</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.94914567087142</v>
+        <v>38.75402844135159</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.94914561997035</v>
+        <v>3.284773694853129</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.94914566659189</v>
+        <v>30.79572167695732</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.94914568002142</v>
+        <v>38.49574186198186</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.94914563262805</v>
+        <v>4.879706165947756</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.94914568000454</v>
+        <v>47.55959473372805</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.94914552350162</v>
+        <v>4.081976790444404</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.94914555909381</v>
+        <v>16.28258621164032</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.94914557141871</v>
+        <v>26.60149058976286</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.94914552959666</v>
+        <v>2.326158909480561</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.94914556879923</v>
+        <v>30.74872227612295</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.94914558083405</v>
+        <v>37.74923550412854</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.94914553519806</v>
+        <v>4.270489979951765</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.94914557440879</v>
+        <v>42.653813598059</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.949145586444</v>
+        <v>50.72115732724997</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.949145585622</v>
+        <v>38.44069358877156</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.94914560027684</v>
+        <v>44.72851219799765</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.94914560533226</v>
+        <v>50.79843885300778</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.94914555832213</v>
+        <v>12.31979302212532</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.94914559506129</v>
+        <v>31.47328460681929</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.94914560717766</v>
+        <v>46.79459731391037</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.94914559707281</v>
+        <v>10.08125869668847</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.94914563939021</v>
+        <v>27.40430896015156</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.94914565279689</v>
+        <v>37.12549655650545</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.94914560192004</v>
+        <v>3.962136869167356</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.94914564701346</v>
+        <v>27.34048377254641</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.94914566082763</v>
+        <v>37.87445731404222</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.94914561353542</v>
+        <v>1.639124065810275</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.94914565948181</v>
+        <v>39.88732408635763</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.9491456577365</v>
+        <v>32.25266455773198</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.94914565267224</v>
+        <v>18.34020531092884</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.94914567081714</v>
+        <v>28.2447988757838</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.94914567615453</v>
+        <v>33.60891721588831</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.94914561974977</v>
+        <v>5.274711801734615</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.94914566396804</v>
+        <v>20.62656290371385</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.94914567699085</v>
+        <v>27.99590083211566</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.94914562339159</v>
+        <v>15.85932959582554</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.94914566501863</v>
+        <v>22.28936431049894</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.94914567826431</v>
+        <v>31.41981305414394</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.9491456276147</v>
+        <v>-4.216673324348516</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.94914567197997</v>
+        <v>10.42041321941866</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.94914568544223</v>
+        <v>16.28587464408376</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.94914564031878</v>
+        <v>-4.701165685830222</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.9491456855096</v>
+        <v>24.81971837860266</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.94914569868046</v>
+        <v>39.10505208012887</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.94914569323643</v>
+        <v>27.33465679129945</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.9491457105745</v>
+        <v>40.12005779933695</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.94914571514844</v>
+        <v>46.06042387297511</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.94914565854479</v>
+        <v>3.363651023783749</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.94914570227905</v>
+        <v>24.61092396521394</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.94914571529065</v>
+        <v>37.01507287835641</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.94914568868929</v>
+        <v>58.53342261039226</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.94914568307252</v>
+        <v>54.52090464079556</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.94914570144491</v>
+        <v>61.11073324684625</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.9491457067924</v>
+        <v>65.39509258078147</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.94914564772999</v>
+        <v>24.96762916466742</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.94914569444057</v>
+        <v>59.73210561062457</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.94914570705654</v>
+        <v>63.80209096988432</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.94914564931647</v>
+        <v>23.35406421451832</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.94914569334284</v>
+        <v>42.84675725225801</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.94914570633538</v>
+        <v>47.52109870829879</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.9491456558712</v>
+        <v>9.709641990297349</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.9491457029714</v>
+        <v>42.6236351056711</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.94914571629061</v>
+        <v>44.81724851341191</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.94914567002042</v>
+        <v>13.13523958947089</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.94914571782181</v>
+        <v>61.05543302888555</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.94914573072067</v>
+        <v>70.16599579017172</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.94914572468016</v>
+        <v>75.20956933168183</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.94914574223577</v>
+        <v>82.58960661801946</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.94914574679802</v>
+        <v>86.40232466452473</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.94914568767188</v>
+        <v>33.47746699648671</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.94914573384472</v>
+        <v>75.73878991770455</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.94914574636379</v>
+        <v>81.2649840426155</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.94914569301931</v>
+        <v>58.62581135369469</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.94914568726605</v>
+        <v>51.31378594738676</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.94914570545167</v>
+        <v>56.59676941558277</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.94914571077754</v>
+        <v>63.86398404053227</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.94914565182474</v>
+        <v>17.10605785497154</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.94914569854952</v>
+        <v>56.23133889131854</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.94914571097594</v>
+        <v>62.38627616028955</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.94914565315072</v>
+        <v>16.25161774267758</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.94914569712148</v>
+        <v>38.24375771620709</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.94914570995916</v>
+        <v>44.65135382408751</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.94914566031657</v>
+        <v>5.968740518797151</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.94914570736776</v>
+        <v>41.27439677260818</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.94914572057842</v>
+        <v>45.64515096338332</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.94914567448798</v>
+        <v>10.04154125683762</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.9491457222222</v>
+        <v>61.05767619340901</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.94914573496401</v>
+        <v>71.885772900248</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.94914572879811</v>
+        <v>76.41726238701642</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.94914574617793</v>
+        <v>82.13260708296649</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.94914575071329</v>
+        <v>88.70088325250209</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.94914569168141</v>
+        <v>27.78086217726353</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.94914573790401</v>
+        <v>75.62853505726291</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.94914575020165</v>
+        <v>82.8729691133978</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.94914567287726</v>
+        <v>54.29035570981378</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.94914566713758</v>
+        <v>33.5181642615501</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.9491456852733</v>
+        <v>40.52555981196549</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.94914569072496</v>
+        <v>51.49493979996096</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.94914563302558</v>
+        <v>8.787549210723224</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.94914567859764</v>
+        <v>44.4644618947822</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.9491456914892</v>
+        <v>54.99413458165716</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.94914563618695</v>
+        <v>14.70177032971642</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.94914567888606</v>
+        <v>35.50303932998416</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.94914569210132</v>
+        <v>46.48012330235141</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.94914564245033</v>
+        <v>7.517900349642449</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.94914568802649</v>
+        <v>38.80985735595159</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.94914570161007</v>
+        <v>47.76639333177668</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.94914565562848</v>
+        <v>7.764329106790083</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.94914570197741</v>
+        <v>54.9942146251109</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.94914571510953</v>
+        <v>70.78961053231752</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.94914570903338</v>
+        <v>61.71464294302616</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.94914572637154</v>
+        <v>70.89408562801566</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.94914573101527</v>
+        <v>82.18469634286964</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.94914567303656</v>
+        <v>18.35196767192611</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.94914571822309</v>
+        <v>63.78256782986384</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.94914573099629</v>
+        <v>78.03781336481352</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.94914548678566</v>
+        <v>10.3489721256423</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.94914552073139</v>
+        <v>13.01272020436257</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.94914553251819</v>
+        <v>20.08755414617746</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.94914548934363</v>
+        <v>-1.256492993430502</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.94914552681395</v>
+        <v>13.65290068849153</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.94914553821807</v>
+        <v>16.9149577209547</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.94914549324066</v>
+        <v>4.488513094039337</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.94914553061725</v>
+        <v>29.84971764909796</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.94914554213149</v>
+        <v>33.69131081986274</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.94914554328826</v>
+        <v>17.85259653622761</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.94914555751163</v>
+        <v>24.10019872408403</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.94914556215496</v>
+        <v>25.33924129414171</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.94914551751453</v>
+        <v>8.999287285171432</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.94914555276493</v>
+        <v>10.730534380789</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.94914556440995</v>
+        <v>19.98459125779302</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.94914555706405</v>
+        <v>11.40151491068497</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.94914559772969</v>
+        <v>18.92668416724616</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.94914561056419</v>
+        <v>23.37613643168732</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.94914555855966</v>
+        <v>-3.674587969697612</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.94914560200577</v>
+        <v>7.505626610034877</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.94914561511887</v>
+        <v>12.1074065514403</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.94914556869997</v>
+        <v>-3.476908594135214</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.94914561281199</v>
+        <v>22.38202517169421</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.94914550397021</v>
+        <v>9.474046132277429</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.94914553984661</v>
+        <v>20.60829869725819</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.9491455515085</v>
+        <v>24.75191315545253</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.9491455085363</v>
+        <v>0.4786531762976587</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.94914554825797</v>
+        <v>26.71280583623305</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.94914555957511</v>
+        <v>28.40156470142492</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.949145513394</v>
+        <v>6.231578340764514</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.94914555286705</v>
+        <v>43.56284961866594</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.94914556424676</v>
+        <v>44.3734214036802</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.94914556551355</v>
+        <v>40.96559002578695</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.94914558006028</v>
+        <v>46.57746913539287</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.94914558476919</v>
+        <v>47.63405477663436</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.94914553754122</v>
+        <v>15.57986431502244</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.94914557485991</v>
+        <v>31.9170343423893</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.94914558617198</v>
+        <v>37.26844941939022</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.94914557966947</v>
+        <v>11.54823772731554</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.94914562262538</v>
+        <v>29.05528408498113</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.94914563534848</v>
+        <v>32.45451530402894</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.94914558342292</v>
+        <v>0.1540098172516302</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.94914562952642</v>
+        <v>25.50887082683935</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.94914564258801</v>
+        <v>29.89100029636464</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.94914559482071</v>
+        <v>3.125620788361513</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.94914564142386</v>
+        <v>43.45891895695953</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.94914550794872</v>
+        <v>2.849004500430841</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.94914554374894</v>
+        <v>15.02013705894312</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.94914555529025</v>
+        <v>20.50930144208696</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.94914551308652</v>
+        <v>-2.413047679738096</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.94914555273482</v>
+        <v>24.57374770609679</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.94914556396309</v>
+        <v>28.03428431180075</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.94914551799121</v>
+        <v>3.066975220395278</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.9491455573719</v>
+        <v>41.72195784244838</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.9491455686336</v>
+        <v>43.99919942170895</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.94914556986803</v>
+        <v>41.32143540095227</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.94914558428486</v>
+        <v>45.87304984137613</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.94914558898236</v>
+        <v>49.05778602605842</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.94914554170774</v>
+        <v>8.167573208848506</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.94914557906515</v>
+        <v>27.50865164402408</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.94914559021037</v>
+        <v>34.38285615046171</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.9491455836169</v>
+        <v>4.266176274651823</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.94914562647786</v>
+        <v>22.94902723681479</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.94914563908381</v>
+        <v>28.57236227982245</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.94914558797098</v>
+        <v>-4.653058590923955</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.94914563399358</v>
+        <v>21.76484644611853</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.94914564697208</v>
+        <v>28.70936666392341</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.94914559938428</v>
+        <v>-1.37893107212469</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.9491456458821</v>
+        <v>40.53020531934069</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.94914549559383</v>
+        <v>0.3946185340540858</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.94914553031193</v>
+        <v>11.01857760012239</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.9491455421171</v>
+        <v>20.43171691446112</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.94914549992921</v>
+        <v>-0.9408352224737904</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.94914553829966</v>
+        <v>23.572497660618</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.94914554982437</v>
+        <v>30.29360426062838</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.94914550411194</v>
+        <v>2.826276802646799</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.94914554232301</v>
+        <v>38.18743200240098</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.94914555385621</v>
+        <v>44.63501687882854</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.94914555491211</v>
+        <v>34.4260546141746</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.94914556917225</v>
+        <v>39.01900317337989</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.9491455739069</v>
+        <v>44.20946413187235</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.94914552785919</v>
+        <v>4.862984727214222</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.94914556424166</v>
+        <v>21.75793204893691</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.94914557577023</v>
+        <v>34.02131009971654</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.94914556788145</v>
+        <v>1.308071937643305</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.94914560946652</v>
+        <v>18.47777489412444</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.9491456223644</v>
+        <v>26.77479497584438</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.94914557128007</v>
+        <v>-4.949986407882587</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.94914561579323</v>
+        <v>17.69434632837968</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.9491456290998</v>
+        <v>26.84150480549572</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.94914558178937</v>
+        <v>-4.656471671247797</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.94914562690389</v>
+        <v>33.32293825726413</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.94914562569289</v>
+        <v>29.36525435593432</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.94914562260387</v>
+        <v>16.1199332534573</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.94914564026868</v>
+        <v>26.14155453477753</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.94914564537974</v>
+        <v>29.91612315337519</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.9491455899414</v>
+        <v>2.460158067666942</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.94914563383043</v>
+        <v>17.09395154693313</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.94914564649717</v>
+        <v>23.16751451383191</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.94914559695443</v>
+        <v>13.70317059258224</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.94914563795786</v>
+        <v>22.81194792713206</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.94914565075783</v>
+        <v>31.44075681973504</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.94914559998926</v>
+        <v>-6.308264368296356</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.94914564385923</v>
+        <v>9.473273619697011</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.9491456568967</v>
+        <v>15.54201334829927</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.94914561191792</v>
+        <v>-3.432975507323441</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.9491456564057</v>
+        <v>29.00569658261572</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.9491456691671</v>
+        <v>40.89471494333684</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.9491456657604</v>
+        <v>28.94432550655856</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.94914568269792</v>
+        <v>40.59211018008091</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.94914568709492</v>
+        <v>46.71898192834934</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.94914563111414</v>
+        <v>2.8155999736701</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.94914567479222</v>
+        <v>25.06552648419777</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.94914568737786</v>
+        <v>35.91216374322698</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.9491456541781</v>
+        <v>49.66289405452973</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.9491456505528</v>
+        <v>43.81786292768197</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.94914566844943</v>
+        <v>50.97072452239308</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.94914567360806</v>
+        <v>54.41890628927746</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.9491456155255</v>
+        <v>14.4390723166101</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.94914566186377</v>
+        <v>46.9180831377752</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.94914567419012</v>
+        <v>50.23248035387229</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.94914562082356</v>
+        <v>17.29273021341814</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.94914566415236</v>
+        <v>38.00449656451389</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.94914567675842</v>
+        <v>42.79765635541422</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.94914562617327</v>
+        <v>3.276986380119222</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.94914567273587</v>
+        <v>36.17123886569092</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.94914568565992</v>
+        <v>38.8197142354411</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.94914563938013</v>
+        <v>8.937573522026339</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.94914568640078</v>
+        <v>58.02162599903866</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.94914569894403</v>
+        <v>65.39958305398284</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.94914569497609</v>
+        <v>67.75994488543471</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.94914571214079</v>
+        <v>74.52249692079688</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.94914571655051</v>
+        <v>79.5446052249621</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.94914565803967</v>
+        <v>24.75283768671231</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.94914570413154</v>
+        <v>66.54617599015593</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.94914571628564</v>
+        <v>70.97049772998345</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.94914565851686</v>
+        <v>49.19662482744323</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.94914565474413</v>
+        <v>40.00526610783979</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.94914567245601</v>
+        <v>45.83258467009804</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.94914567759485</v>
+        <v>52.14301610867831</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.94914561961302</v>
+        <v>6.118787887239503</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.94914566595774</v>
+        <v>42.45228680898734</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.94914567810434</v>
+        <v>47.70760560026829</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.94914562467948</v>
+        <v>10.40346117329601</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.9491456679483</v>
+        <v>33.36799400226997</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.94914568040747</v>
+        <v>39.65278466555801</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.94914563063891</v>
+        <v>-0.5503375907312282</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.94914567715482</v>
+        <v>34.70342872861699</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.94914568996835</v>
+        <v>39.11549325289067</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.94914564385049</v>
+        <v>5.594687646947005</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.94914569079963</v>
+        <v>57.46392446442981</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.94914570319183</v>
+        <v>66.33151154109933</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.94914569908463</v>
+        <v>68.10714314684694</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.94914571607865</v>
+        <v>73.25218555413471</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.94914572046253</v>
+        <v>80.96299956492309</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.94914566203596</v>
+        <v>18.33532052924596</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.94914570817336</v>
+        <v>65.41720156912069</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.94914572011722</v>
+        <v>71.34874942583809</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.94914563984397</v>
+        <v>44.72887480207352</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.94914563613944</v>
+        <v>24.61948811905609</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.94914565378812</v>
+        <v>31.79000714622265</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.94914565898697</v>
+        <v>40.74829425100775</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.94914560228474</v>
+        <v>-0.3034908306964148</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.94914564747903</v>
+        <v>32.95429611602205</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.9491456600204</v>
+        <v>41.94309027821954</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.94914560898339</v>
+        <v>9.547459220428305</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.94914565102055</v>
+        <v>31.97864161570782</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.94914566379408</v>
+        <v>42.21176461592685</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.94914561400244</v>
+        <v>0.5912099110228297</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.94914565905756</v>
+        <v>32.44797411765121</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.94914567220265</v>
+        <v>40.85582405995049</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.94914562634016</v>
+        <v>3.978137021247036</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.94914567194576</v>
+        <v>52.78783914434668</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.94914568466706</v>
+        <v>66.02494830217083</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.94914568067442</v>
+        <v>56.62009664559712</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.94914569761589</v>
+        <v>64.77145000212694</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.94914570206406</v>
+        <v>76.00155345232528</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.94914564472867</v>
+        <v>11.40977631328946</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.94914568982551</v>
+        <v>56.755890178013</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.94914570218812</v>
+        <v>69.14682648104903</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.94914551662606</v>
+        <v>13.38936576703714</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.94914555130548</v>
+        <v>20.05744031637126</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.94914556325636</v>
+        <v>27.431369258011</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.94914552077174</v>
+        <v>-0.1001519254275038</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.94914555896257</v>
+        <v>20.92722469763584</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.94914557051182</v>
+        <v>24.18039261584282</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.94914552609322</v>
+        <v>4.757497775136148</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.94914556430781</v>
+        <v>36.7200349820398</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.94914557596312</v>
+        <v>41.28486185440114</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.94914557503508</v>
+        <v>21.67925083119201</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.94914558944082</v>
+        <v>30.16996810002579</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.94914559419984</v>
+        <v>31.86762076115302</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.94914554891031</v>
+        <v>14.62027477606371</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.94914558433418</v>
+        <v>18.89367847426129</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.94914559621182</v>
+        <v>30.47021155472041</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.94914558763913</v>
+        <v>19.47766850263959</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.9491456288678</v>
+        <v>29.10189096426679</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.94914564174626</v>
+        <v>32.511231604561</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.94914559041185</v>
+        <v>1.973324569049947</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.94914563432225</v>
+        <v>16.34266489900483</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.94914564745187</v>
+        <v>20.06639133707025</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.94914560165053</v>
+        <v>0.6093293689016157</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.94914564639777</v>
+        <v>30.07083456465692</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.94914553538722</v>
+        <v>15.6953128779022</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.94914557204681</v>
+        <v>31.97818219539478</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.94914558382657</v>
+        <v>35.66931749632323</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.94914554158012</v>
+        <v>4.708889813916716</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.94914558205652</v>
+        <v>37.97414050977611</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.94914559348406</v>
+        <v>39.08841998958111</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.94914554798822</v>
+        <v>10.18017093764942</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.94914558835249</v>
+        <v>55.42166222586647</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.94914559982878</v>
+        <v>56.22497539566774</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.94914559900223</v>
+        <v>51.21721272221319</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.94914561373287</v>
+        <v>58.83570259839297</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.94914561853168</v>
+        <v>59.7876875097561</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.94914557063539</v>
+        <v>26.82245933963667</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.9491456081403</v>
+        <v>46.94974817589688</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.94914561963348</v>
+        <v>53.99297340122139</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.94914561188901</v>
+        <v>23.29658692975041</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.9491456554487</v>
+        <v>44.09276172077637</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.94914566814631</v>
+        <v>45.56092135224903</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.9491456169078</v>
+        <v>9.637257693348813</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.94914566349564</v>
+        <v>39.13365684979585</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.94914567651736</v>
+        <v>41.90814912153533</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.94914562954281</v>
+        <v>11.95944186405171</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.94914567682549</v>
+        <v>57.28963625611361</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.94914553920287</v>
+        <v>8.920729958487897</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.94914557578663</v>
+        <v>26.51651879025736</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.9491455874396</v>
+        <v>31.56943808603861</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.94914554596594</v>
+        <v>2.016409374714829</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.94914558636526</v>
+        <v>36.15083997727205</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.94914559770208</v>
+        <v>39.15073499935703</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.94914555242048</v>
+        <v>7.311636179355315</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.94914559269205</v>
+        <v>54.1782453747422</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.9491456040451</v>
+        <v>56.45707838400426</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.9491456032105</v>
+        <v>52.5143151908055</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.94914561781385</v>
+        <v>59.07308925134221</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.94914562259869</v>
+        <v>62.15246459418313</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.94914557465695</v>
+        <v>20.01344846684741</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.94914561220239</v>
+        <v>43.52795217924354</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.94914562351974</v>
+        <v>52.07727136795405</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.94914561570788</v>
+        <v>15.96553200886643</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.94914565917566</v>
+        <v>38.31363749128422</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.94914567174871</v>
+        <v>42.04282045238324</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.94914562132191</v>
+        <v>5.202903801964791</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.94914566782746</v>
+        <v>35.98885332730549</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.94914568076408</v>
+        <v>41.46728232305828</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.94914563398086</v>
+        <v>7.94510146714082</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.94914568116162</v>
+        <v>55.2711890553556</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.9491455259049</v>
+        <v>5.602637157211756</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.94914556138105</v>
+        <v>21.29867256358525</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.94914557334582</v>
+        <v>30.69154941586089</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.94914553187765</v>
+        <v>3.92525504858677</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.94914557098701</v>
+        <v>35.31045649404453</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.94914558265878</v>
+        <v>41.9727945802673</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.94914553752261</v>
+        <v>6.912681061003969</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.94914557659634</v>
+        <v>50.12274334358112</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.94914558826977</v>
+        <v>56.89438578379973</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.94914558723092</v>
+        <v>43.66334855994022</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.94914560168532</v>
+        <v>50.5288810705034</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.94914560654955</v>
+        <v>56.17147647377436</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.94914555980822</v>
+        <v>15.13108359692969</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.9491455963828</v>
+        <v>35.79211026668696</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.94914560813436</v>
+        <v>50.16328509749138</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.94914559904701</v>
+        <v>12.81989470790736</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.94914564122258</v>
+        <v>33.44646222328333</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.94914565415544</v>
+        <v>40.54515563554568</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.94914560375625</v>
+        <v>5.971436636906279</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.94914564875348</v>
+        <v>32.82861608331093</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.94914566207536</v>
+        <v>41.27001401395043</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.94914561541526</v>
+        <v>4.953573678492422</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.94914566119479</v>
+        <v>48.13351096830765</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.94914565926837</v>
+        <v>36.83761461444207</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.94914565417784</v>
+        <v>24.55470588585355</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.94914567206359</v>
+        <v>35.2204291878447</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.94914567720726</v>
+        <v>39.04046651721705</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.94914562123002</v>
+        <v>11.24164057803156</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.94914566522424</v>
+        <v>28.63060601450669</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.94914567784619</v>
+        <v>34.61729087615613</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.94914562469164</v>
+        <v>18.60224644173105</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.94914566612953</v>
+        <v>27.9100819566234</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.94914567895012</v>
+        <v>34.98618697567697</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.94914562875588</v>
+        <v>-2.993952389870291</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.94914567295955</v>
+        <v>14.46391108866847</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.94914568599618</v>
+        <v>18.99049211079338</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.94914564152795</v>
+        <v>-2.378325903255678</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.94914568650634</v>
+        <v>31.50102902429952</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.94914569926119</v>
+        <v>43.01916386318572</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.9491456938591</v>
+        <v>32.41624617163455</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.94914571096113</v>
+        <v>45.56400574028299</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.94914571538329</v>
+        <v>50.33762744363634</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.94914565918894</v>
+        <v>7.994088107042408</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.94914570269752</v>
+        <v>30.89853272279621</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.94914571533668</v>
+        <v>41.94959653777302</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.94914568950135</v>
+        <v>62.34486847537997</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.94914568386226</v>
+        <v>59.98626366991262</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.94914570197106</v>
+        <v>67.22385871486922</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.94914570712085</v>
+        <v>70.1118278047535</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.9491456485345</v>
+        <v>30.22016001085994</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.94914569497613</v>
+        <v>66.62696075971293</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.94914570718836</v>
+        <v>69.06688650503935</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.94914565001847</v>
+        <v>25.61404954250678</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.94914569381698</v>
+        <v>47.69833700924346</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.94914570637899</v>
+        <v>49.99929674882318</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.94914565637611</v>
+        <v>9.943707228486716</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.94914570328499</v>
+        <v>45.4479388902912</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.94914571616199</v>
+        <v>45.82608767447735</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.94914567053918</v>
+        <v>14.25116765163016</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.94914571808726</v>
+        <v>66.18722303148097</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.94914573056298</v>
+        <v>72.1897069223739</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.94914572457807</v>
+        <v>78.39803316530551</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.94914574189419</v>
+        <v>86.03742296010721</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.94914574630054</v>
+        <v>88.86056359433258</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.94914568762665</v>
+        <v>36.31085310763117</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.94914573353194</v>
+        <v>79.93739497420414</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.94914574567873</v>
+        <v>83.761056991491</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.94914569371171</v>
+        <v>62.81180242673015</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.94914568794393</v>
+        <v>57.33521297086438</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.94914570586761</v>
+        <v>63.25532330475916</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.94914571099519</v>
+        <v>69.05439724458581</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.94914565252119</v>
+        <v>22.866841017671</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.94914569897151</v>
+        <v>63.65030313572788</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.94914571099513</v>
+        <v>67.979254526256</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.94914565374895</v>
+        <v>18.80728130065231</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.94914569749027</v>
+        <v>43.41615432705021</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.9491457098978</v>
+        <v>47.24188613079505</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.94914566071261</v>
+        <v>6.472057951499867</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.94914570757206</v>
+        <v>44.43113398673943</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.94914572033789</v>
+        <v>46.71812735636054</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.94914567488762</v>
+        <v>11.40820015554073</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.94914572236661</v>
+        <v>66.45493692269058</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.94914573468485</v>
+        <v>73.95229132651528</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.94914572858186</v>
+        <v>79.84987542706548</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.94914574572405</v>
+        <v>85.81031881159882</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.94914575010289</v>
+        <v>91.29552515172091</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.94914569152728</v>
+        <v>30.87066940745062</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.94914573747641</v>
+        <v>80.10258366085131</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.94914574940355</v>
+        <v>85.40787768631883</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.94914567411816</v>
+        <v>59.07763469203759</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.94914566838024</v>
+        <v>40.34489356028909</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.94914568625288</v>
+        <v>48.12678018283492</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.94914569150054</v>
+        <v>57.33827663360049</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.94914563425076</v>
+        <v>15.2515099487052</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.94914567957204</v>
+        <v>52.93825964307602</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.94914569205334</v>
+        <v>61.59067450832261</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.94914563722813</v>
+        <v>17.93081408465695</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.94914567972472</v>
+        <v>41.57346882657475</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.9491456925027</v>
+        <v>50.02486877683769</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.94914564330635</v>
+        <v>8.855796350899958</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.94914568871077</v>
+        <v>42.99837635695385</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.94914570184925</v>
+        <v>50.01318242026292</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.94914565652649</v>
+        <v>10.23759678525551</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.94914570264819</v>
+        <v>61.75944119606885</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.9491457153497</v>
+        <v>74.26734851270417</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.94914570934386</v>
+        <v>66.82703785325515</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.94914572644296</v>
+        <v>76.33565612546255</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.94914573092638</v>
+        <v>86.18533289219009</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.94914567338409</v>
+        <v>23.06937477562097</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.94914571831686</v>
+        <v>70.09898175121062</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.94914573071172</v>
+        <v>82.42590462102847</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.94914548229007</v>
+        <v>12.74516998080419</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.94914551386926</v>
+        <v>11.78650464466846</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.94914552494509</v>
+        <v>16.61533394673331</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.94914548375918</v>
+        <v>-0.9360215523961664</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.94914551850303</v>
+        <v>7.281631672600266</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.94914552929034</v>
+        <v>9.524784294142021</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.94914548688595</v>
+        <v>3.282479129540686</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.94914552162469</v>
+        <v>21.02285527670008</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.94914553248951</v>
+        <v>23.59095701444717</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.94914553462551</v>
+        <v>11.66269637790066</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.94914554799296</v>
+        <v>16.90554336220806</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.94914555242925</v>
+        <v>18.10114750575721</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.9491455109586</v>
+        <v>7.576852149607586</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.949145543865</v>
+        <v>6.963647655841367</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.94914555480502</v>
+        <v>12.62089646518945</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.9491455487425</v>
+        <v>13.41283537867566</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.94914558663428</v>
+        <v>17.48440734180338</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.9491455988233</v>
+        <v>22.00949383561625</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.94914554947393</v>
+        <v>-0.1937596197891764</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.94914558985803</v>
+        <v>5.83779973233376</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.94914560236912</v>
+        <v>10.98542609375812</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.94914555843913</v>
+        <v>-1.081469835294886</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.9491455995174</v>
+        <v>17.75571753761272</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.94914549832324</v>
+        <v>11.85996099237762</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.9491455317301</v>
+        <v>19.04254988764121</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.94914554269038</v>
+        <v>21.37959248263359</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.94914550167187</v>
+        <v>1.278859150805694</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.94914553853655</v>
+        <v>20.23687898941829</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.94914554925084</v>
+        <v>21.35103561238164</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.94914550570837</v>
+        <v>5.342527936127038</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.94914554242973</v>
+        <v>34.55626087225288</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.9491455531717</v>
+        <v>34.53436513100574</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.94914555540142</v>
+        <v>33.42616586332998</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.94914556907887</v>
+        <v>38.31934463259871</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.94914557358378</v>
+        <v>39.5892008492714</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.94914552967543</v>
+        <v>13.95365674426574</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.94914556453969</v>
+        <v>27.18862800089239</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.9491455751768</v>
+        <v>29.61379271393295</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.94914556998894</v>
+        <v>13.21836294899704</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.94914561005267</v>
+        <v>26.92007006349663</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.94914562214413</v>
+        <v>30.92337906258622</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.94914557284322</v>
+        <v>3.790277331754229</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.94914561573408</v>
+        <v>23.29430570573071</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.94914562821198</v>
+        <v>28.80264331582221</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.94914558301104</v>
+        <v>5.392418356459846</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.94914562644959</v>
+        <v>38.12805780825693</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.9491455022124</v>
+        <v>5.899276325461098</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.94914553555005</v>
+        <v>13.89448898277239</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.94914554639996</v>
+        <v>17.65370641213736</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.9491455061053</v>
+        <v>-1.233223716864398</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.94914554290357</v>
+        <v>18.25182509278359</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.94914555353812</v>
+        <v>21.22691307673841</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.94914551019666</v>
+        <v>2.609118108367479</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.9491455468346</v>
+        <v>32.92506933363672</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.94914555746844</v>
+        <v>34.44097700290892</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.9491455596492</v>
+        <v>33.59580780809112</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.94914557320439</v>
+        <v>37.48347343887365</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.94914557769966</v>
+        <v>40.84430155396689</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.94914553374828</v>
+        <v>7.144525879990411</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.94914556864898</v>
+        <v>22.94755477657763</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.94914557913303</v>
+        <v>26.99226196258408</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.94914557385575</v>
+        <v>6.338549909011125</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.94914561383191</v>
+        <v>20.94999002952624</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.94914562581659</v>
+        <v>27.25096415609059</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.94914557727799</v>
+        <v>-0.8408764042316896</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.94914562009397</v>
+        <v>19.43407891660172</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.94914563249814</v>
+        <v>27.60663634937545</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.94914558747418</v>
+        <v>1.073965875361392</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.94914563081636</v>
+        <v>35.11200047077498</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.94914549061456</v>
+        <v>3.551476513052471</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.94914552291869</v>
+        <v>9.691619248542256</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.94914553402156</v>
+        <v>17.1008004810687</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.94914549374742</v>
+        <v>-0.4492433798872391</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.94914552933138</v>
+        <v>16.3658619777894</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.94914554024691</v>
+        <v>22.31427677634643</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.94914549715791</v>
+        <v>1.810733838586245</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.94914553268102</v>
+        <v>28.58017266605157</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.94914554357405</v>
+        <v>34.00913089519332</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.94914554559039</v>
+        <v>26.41223892267525</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.94914555899212</v>
+        <v>30.10718563003218</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.94914556351882</v>
+        <v>35.30351501017751</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.94914552074165</v>
+        <v>3.704269349565646</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.94914555471142</v>
+        <v>16.82961827460434</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.94914556555238</v>
+        <v>25.74656884309047</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.94914555898668</v>
+        <v>3.648016202943818</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.94914559774034</v>
+        <v>16.3378706784774</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.94914561000307</v>
+        <v>25.01109909118182</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.94914556149646</v>
+        <v>-1.612012661948324</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.94914560287465</v>
+        <v>14.68701285721614</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.94914561558699</v>
+        <v>24.72200187434611</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.94914557083271</v>
+        <v>-2.505411713753571</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.9491456128521</v>
+        <v>27.28569626257264</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.94914561179119</v>
+        <v>25.42044068114576</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.94914560977197</v>
+        <v>13.15517414496732</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.94914562635469</v>
+        <v>22.32613364928937</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.94914563127189</v>
+        <v>26.67811771051969</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.94914557954088</v>
+        <v>3.037642148932672</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.94914562053424</v>
+        <v>13.36260883349214</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.94914563255735</v>
+        <v>18.99112155305236</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.9491455876576</v>
+        <v>15.35326745395157</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.94914562591876</v>
+        <v>20.8487202187927</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.94914563808882</v>
+        <v>28.94447430953434</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.94914558992954</v>
+        <v>-4.088199070588136</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.94914563076121</v>
+        <v>6.446437733031335</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.94914564322553</v>
+        <v>12.71170399164279</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.94914560065797</v>
+        <v>-1.861742572922182</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.94914564214553</v>
+        <v>23.25950073597205</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.94914565431696</v>
+        <v>34.99960405996919</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.94914565195599</v>
+        <v>24.7679752518331</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.94914566788007</v>
+        <v>34.54909253721171</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.9491456721009</v>
+        <v>42.35413284463927</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.94914561978822</v>
+        <v>3.261643940386854</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.94914566062919</v>
+        <v>20.19146252210898</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.9491456725725</v>
+        <v>30.54936470143023</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.94914563861358</v>
+        <v>45.5350619741237</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.94914563607652</v>
+        <v>39.20234950039844</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.94914565288679</v>
+        <v>45.89681514324128</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.94914565785665</v>
+        <v>50.2967214319642</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.9491456036144</v>
+        <v>14.27813556096366</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.94914564693517</v>
+        <v>41.61798977149012</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.94914565865242</v>
+        <v>45.29167451755028</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.94914561018315</v>
+        <v>19.94261527369877</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.94914565065223</v>
+        <v>36.584905164723</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.94914566264688</v>
+        <v>41.51898266053939</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.94914561463427</v>
+        <v>6.771324357430032</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.94914565800856</v>
+        <v>33.54269278392057</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.94914567038081</v>
+        <v>37.15166960031134</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.94914562659095</v>
+        <v>11.69304000411137</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.94914567048155</v>
+        <v>52.75577365428154</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.94914568245583</v>
+        <v>60.69497379817352</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.94914567955577</v>
+        <v>63.02590250591776</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.9491456957004</v>
+        <v>68.42824243782938</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.94914569993963</v>
+        <v>75.56209262800982</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.94914564522048</v>
+        <v>25.52000401144317</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.94914568835615</v>
+        <v>61.03048529156953</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.94914569990561</v>
+        <v>65.94282522567362</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.94914564287145</v>
+        <v>45.04962986571134</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.94914564017929</v>
+        <v>35.17450436552385</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.94914565681644</v>
+        <v>40.5886378299485</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.949145661769</v>
+        <v>47.8225596496614</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.94914560762024</v>
+        <v>6.333923299007967</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.9491456509476</v>
+        <v>37.00969973514476</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.94914566250039</v>
+        <v>42.75055798405468</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.94914561396901</v>
+        <v>13.55846118070853</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.94914565438373</v>
+        <v>32.13381370577525</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.94914566624348</v>
+        <v>38.71213918829199</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.94914561899733</v>
+        <v>3.140940711100566</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.94914566232922</v>
+        <v>31.91329357083311</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.94914567460182</v>
+        <v>37.46917248602754</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.94914563097279</v>
+        <v>8.561923194361302</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.9491456747993</v>
+        <v>52.07619205135167</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.9491456866346</v>
+        <v>61.66951919542886</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.94914568358869</v>
+        <v>63.02189225800184</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.94914569957314</v>
+        <v>66.88627530084797</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.94914570378928</v>
+        <v>76.72166232473558</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.94914564914654</v>
+        <v>19.4341009264361</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.94914569232668</v>
+        <v>59.65421742735474</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.94914570368243</v>
+        <v>66.25625590255882</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.94914562519693</v>
+        <v>39.67991184599619</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.94914562257524</v>
+        <v>20.01437805233052</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.94914563914339</v>
+        <v>26.46787410213296</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.94914564414895</v>
+        <v>36.11630511073697</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.94914559123609</v>
+        <v>0.1318958305215681</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.94914563345549</v>
+        <v>27.32831316181793</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.94914564537785</v>
+        <v>36.34152872012149</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.94914559910741</v>
+        <v>11.61780959491047</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.94914563834052</v>
+        <v>29.21176527242243</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.94914565050075</v>
+        <v>39.45663315095016</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.9491456032396</v>
+        <v>2.541869820912549</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.94914564517871</v>
+        <v>27.7115396622148</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.94914565776529</v>
+        <v>36.90462608164546</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.9491456143815</v>
+        <v>5.214865756968013</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.94914565692184</v>
+        <v>45.31569311646516</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.94914566907098</v>
+        <v>59.01022755481468</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.94914566613749</v>
+        <v>50.12352706010715</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.9491456820672</v>
+        <v>56.61310274575796</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.9491456863417</v>
+        <v>69.7760175871704</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.94914563275336</v>
+        <v>11.41570495375667</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.94914567493216</v>
+        <v>49.46878563294118</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.94914568668189</v>
+        <v>62.02641589358748</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.94914552449039</v>
+        <v>19.01523845826911</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.94914555837956</v>
+        <v>24.80626248150297</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.94914557024857</v>
+        <v>32.85634379754605</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.94914552915185</v>
+        <v>12.31080909680823</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.94914556644444</v>
+        <v>34.52013877654393</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.94914557789775</v>
+        <v>37.62586645320578</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.94914553444045</v>
+        <v>11.90321584114659</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.94914557180561</v>
+        <v>42.73774019713632</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.94914558337934</v>
+        <v>48.13954346002667</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.94914558214496</v>
+        <v>28.38003886883401</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.94914559628541</v>
+        <v>36.39238906753748</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.94914560103282</v>
+        <v>38.02276891996465</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.94914555683427</v>
+        <v>23.1157161691542</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.94914559133591</v>
+        <v>25.64123374812497</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.94914560319648</v>
+        <v>39.57566697328197</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.94914559339569</v>
+        <v>21.85453472692451</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.94914563358858</v>
+        <v>28.31741571927933</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.94914564638085</v>
+        <v>32.38372363631445</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.94914559673585</v>
+        <v>13.9924750526506</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.94914563947084</v>
+        <v>26.04876201562592</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.94914565248555</v>
+        <v>29.49521487260966</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.94914560760314</v>
+        <v>3.854125158991518</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.94914565124555</v>
+        <v>29.60907180004671</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.94914554325042</v>
+        <v>20.84547789809495</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.94914557908521</v>
+        <v>36.09167562620909</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.94914559078128</v>
+        <v>40.47950285494632</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.94914554992688</v>
+        <v>16.7602152542071</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.94914558945256</v>
+        <v>50.94277287845641</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.94914560078782</v>
+        <v>51.96091767775489</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.94914555632076</v>
+        <v>16.95200442231853</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.94914559579805</v>
+        <v>60.87212245647464</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.9491456071925</v>
+        <v>62.57739156028036</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.94914560606823</v>
+        <v>57.87808823805524</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.94914562052931</v>
+        <v>64.89678715549037</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.9491456253133</v>
+        <v>65.59623422538101</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.94914557856199</v>
+        <v>35.81315029574337</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.94914561510577</v>
+        <v>53.9645179684497</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.94914562657944</v>
+        <v>63.38388833942744</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.94914561759686</v>
+        <v>25.33762560111583</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.94914566007679</v>
+        <v>42.71222115905111</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.94914567268377</v>
+        <v>44.86396618713729</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.94914562313758</v>
+        <v>21.61287632118697</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.94914566848399</v>
+        <v>48.37914926478396</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.94914568139391</v>
+        <v>50.9657138845071</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.94914563542007</v>
+        <v>15.13461459813801</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.94914568155067</v>
+        <v>56.46456832981396</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.94914554694891</v>
+        <v>13.68744746287299</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.94914558271173</v>
+        <v>30.24161747454074</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.94914559428143</v>
+        <v>35.96089769904926</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.94914555417679</v>
+        <v>13.66696332026855</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.94914559362737</v>
+        <v>48.65453745596756</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.9491456048736</v>
+        <v>51.5628077498705</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.94914556062169</v>
+        <v>13.71061157242097</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.9491456000104</v>
+        <v>59.25150250363467</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.94914561128262</v>
+        <v>62.4043506401739</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.94914561015373</v>
+        <v>58.87119230276492</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.94914562449138</v>
+        <v>64.82950695120275</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.94914562926119</v>
+        <v>67.60494432928948</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.9491455824605</v>
+        <v>28.79166446840258</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.94914561904961</v>
+        <v>50.30731808872369</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.94914563034739</v>
+        <v>61.17627739674691</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.94914562132894</v>
+        <v>18.0335751392936</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.94914566372212</v>
+        <v>36.96037295936309</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.94914567620473</v>
+        <v>41.34141752254584</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.94914562744352</v>
+        <v>17.18519577495753</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.94914567271079</v>
+        <v>45.19811472254968</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.94914568553744</v>
+        <v>50.49698765666001</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.94914563976016</v>
+        <v>11.20610078087233</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.94914568579447</v>
+        <v>54.53550801925103</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.94914553361546</v>
+        <v>9.565649325823506</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.94914556829074</v>
+        <v>24.40412745149687</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.9491455801721</v>
+        <v>34.22969776887684</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.94914554007154</v>
+        <v>15.10875796646156</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.94914557826403</v>
+        <v>47.51823475971638</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.94914558983996</v>
+        <v>53.85254387482257</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.94914554569234</v>
+        <v>12.69303280658437</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.94914558390461</v>
+        <v>54.79718846061316</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.94914559549703</v>
+        <v>62.14778977969878</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.94914559415257</v>
+        <v>49.16676762792628</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.94914560834596</v>
+        <v>55.55131253410293</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.94914561320117</v>
+        <v>60.98260911438661</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.94914556756585</v>
+        <v>22.73868887439711</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.94914560320841</v>
+        <v>41.59518274740006</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.94914561494208</v>
+        <v>58.08794442767767</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.94914560467737</v>
+        <v>14.96766112344389</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.94914564580509</v>
+        <v>32.43668536456053</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.94914565864959</v>
+        <v>39.99742880028543</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.94914560991241</v>
+        <v>18.1526652304839</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.94914565371255</v>
+        <v>42.54394851417467</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.94914566691907</v>
+        <v>50.60231687648476</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.94914562121532</v>
+        <v>8.339798028356928</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.94914566587666</v>
+        <v>47.82713742625936</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.94914566402023</v>
+        <v>37.33019556443719</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.94914565866871</v>
+        <v>24.35595661270747</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.94914567622078</v>
+        <v>33.35040510083095</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.94914568133848</v>
+        <v>37.54180139262842</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.94914562667391</v>
+        <v>13.1586262732633</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.94914566948161</v>
+        <v>26.08948759600008</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.94914568202276</v>
+        <v>33.29317653311406</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.94914562955701</v>
+        <v>20.22929969128437</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.9491456699616</v>
+        <v>26.58003841136674</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.94914568268107</v>
+        <v>33.73961851917006</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.94914563414389</v>
+        <v>10.12928442131279</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.94914567717414</v>
+        <v>25.52542893913745</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.94914569008184</v>
+        <v>29.18072144865238</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.94914564648876</v>
+        <v>2.14000718363814</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.94914569036425</v>
+        <v>32.47584185584122</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.94914570301002</v>
+        <v>44.36852499067052</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.94914569732108</v>
+        <v>34.25320887695966</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.94914571408895</v>
+        <v>45.95175914821051</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.94914571848337</v>
+        <v>50.61481375103224</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.94914566365895</v>
+        <v>11.5597651881744</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.94914570595615</v>
+        <v>30.34554645891373</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.94914571851701</v>
+        <v>42.43729472475854</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.94914569412824</v>
+        <v>62.53103338161976</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.94914568824273</v>
+        <v>59.82242508045272</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.94914570601132</v>
+        <v>65.21493866214583</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.9491457111315</v>
+        <v>68.27317106071791</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.94914565392072</v>
+        <v>32.73176793888813</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.94914569912539</v>
+        <v>64.25635688124954</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.94914571125515</v>
+        <v>67.98878089129327</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.94914565479758</v>
+        <v>27.45127909775123</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.9491456975179</v>
+        <v>46.26095618795725</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.94914570997584</v>
+        <v>48.74389944474077</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.94914566162298</v>
+        <v>23.29970772067098</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.94914570729164</v>
+        <v>56.24858641878384</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.94914572004376</v>
+        <v>55.93675636691231</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.94914567537248</v>
+        <v>19.05115907143942</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.9491457217687</v>
+        <v>67.09671581237305</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.94914573413466</v>
+        <v>73.5974141063208</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.94914572787391</v>
+        <v>80.55380873985914</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.94914574484787</v>
+        <v>86.54933538243544</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.94914574922439</v>
+        <v>89.08087472978376</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.94914569198647</v>
+        <v>40.71460036894611</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.94914573662619</v>
+        <v>79.67056754840733</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.94914574869396</v>
+        <v>84.75770010458386</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.94914569824724</v>
+        <v>63.05720838823932</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.94914569223713</v>
+        <v>57.32473447081725</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.94914570982487</v>
+        <v>61.3967443064453</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.94914571492313</v>
+        <v>67.29991741154279</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.94914565782043</v>
+        <v>25.63112619576978</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.94914570303981</v>
+        <v>61.51633553324888</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.94914571498157</v>
+        <v>67.0735828714941</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.94914565844462</v>
+        <v>20.88715555484451</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.94914570111185</v>
+        <v>42.18308569108589</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.94914571341601</v>
+        <v>46.19079280221121</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.94914566585399</v>
+        <v>19.97228192998683</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.9491457114753</v>
+        <v>55.28369663743874</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.94914572411865</v>
+        <v>56.92193005551513</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.9491456796252</v>
+        <v>16.4365076377372</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.94914572595681</v>
+        <v>67.55830268710626</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.94914573816672</v>
+        <v>75.55408487761645</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.94914573179321</v>
+        <v>82.24123325563129</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.94914574859649</v>
+        <v>86.54667583000696</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.94914575294586</v>
+        <v>91.68303235010688</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.94914569580263</v>
+        <v>35.63236804865095</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.9491457404904</v>
+        <v>80.09689385274473</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.94914575233929</v>
+        <v>86.64130431729609</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.94914567870419</v>
+        <v>59.51842752845099</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.94914567270674</v>
+        <v>40.4114223884733</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.94914569024927</v>
+        <v>46.52481834831785</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.94914569547443</v>
+        <v>55.94630222702718</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.94914563955671</v>
+        <v>17.72037450149899</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.94914568368047</v>
+        <v>50.87022168923919</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.94914569607957</v>
+        <v>60.51641058336563</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.94914564194963</v>
+        <v>19.69057079115365</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.94914568339854</v>
+        <v>40.26247243917396</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.94914569607343</v>
+        <v>48.65330552774432</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.94914564850483</v>
+        <v>22.28741861663003</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.94914569271171</v>
+        <v>54.0586515536652</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.94914570572128</v>
+        <v>60.16056936720672</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.94914566131011</v>
+        <v>15.05728277545014</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.9491457063129</v>
+        <v>62.92704190351999</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.94914571890551</v>
+        <v>75.65489005225592</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.94914571261771</v>
+        <v>68.8980588112487</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.94914572938324</v>
+        <v>76.95578509765826</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.94914573384138</v>
+        <v>86.53347012905205</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.94914567769108</v>
+        <v>27.25853077097805</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.94914572139596</v>
+        <v>69.867695478816</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>29.94914573371101</v>
+        <v>83.07459021823779</v>
       </c>
     </row>
   </sheetData>
